--- a/data/china_ie_partner/2019-07.xlsx
+++ b/data/china_ie_partner/2019-07.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BF4586-1F86-FD48-A080-FBF8DB610689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5224E3-4D60-F84C-BA8A-1663067A981E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,666 +36,9 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
-  </si>
-  <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
     <t>month</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -703,79 +46,980 @@
     <t>year</t>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -838,10 +1082,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -866,7 +1111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,6 +1134,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1227,24 +1475,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>224</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>30074</v>
-      </c>
-      <c r="C2" s="3">
-        <v>29654</v>
-      </c>
-      <c r="D2" s="2">
-        <v>421</v>
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43695</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43084</v>
+      </c>
+      <c r="D2" s="8">
+        <v>611</v>
       </c>
       <c r="E2" s="6">
         <v>2019</v>
@@ -1258,17 +1506,17 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>62688</v>
-      </c>
-      <c r="C3" s="3">
-        <v>55929</v>
-      </c>
-      <c r="D3" s="3">
-        <v>6758</v>
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>91079</v>
+      </c>
+      <c r="C3" s="4">
+        <v>81262</v>
+      </c>
+      <c r="D3" s="4">
+        <v>9816</v>
       </c>
       <c r="E3" s="6">
         <v>2019</v>
@@ -1282,17 +1530,17 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>951138</v>
-      </c>
-      <c r="C4" s="3">
-        <v>884243</v>
-      </c>
-      <c r="D4" s="3">
-        <v>66895</v>
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1382790</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1285620</v>
+      </c>
+      <c r="D4" s="4">
+        <v>97169</v>
       </c>
       <c r="E4" s="6">
         <v>2019</v>
@@ -1306,17 +1554,17 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>543</v>
-      </c>
-      <c r="C5" s="2">
-        <v>541</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>789</v>
+      </c>
+      <c r="C5" s="8">
+        <v>786</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
       </c>
       <c r="E5" s="6">
         <v>2019</v>
@@ -1330,17 +1578,17 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
-        <v>61306</v>
-      </c>
-      <c r="C6" s="3">
-        <v>28762</v>
-      </c>
-      <c r="D6" s="3">
-        <v>32543</v>
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>89198</v>
+      </c>
+      <c r="C6" s="4">
+        <v>41827</v>
+      </c>
+      <c r="D6" s="4">
+        <v>47371</v>
       </c>
       <c r="E6" s="6">
         <v>2019</v>
@@ -1354,17 +1602,17 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1126213</v>
-      </c>
-      <c r="C7" s="3">
-        <v>733797</v>
-      </c>
-      <c r="D7" s="3">
-        <v>392416</v>
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1636613</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1066506</v>
+      </c>
+      <c r="D7" s="4">
+        <v>570107</v>
       </c>
       <c r="E7" s="6">
         <v>2019</v>
@@ -1378,17 +1626,17 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <v>573993</v>
-      </c>
-      <c r="C8" s="3">
-        <v>459461</v>
-      </c>
-      <c r="D8" s="3">
-        <v>114532</v>
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>834049</v>
+      </c>
+      <c r="C8" s="4">
+        <v>667694</v>
+      </c>
+      <c r="D8" s="4">
+        <v>166356</v>
       </c>
       <c r="E8" s="6">
         <v>2019</v>
@@ -1402,17 +1650,17 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3">
-        <v>33564</v>
-      </c>
-      <c r="C9" s="3">
-        <v>30845</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2719</v>
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4">
+        <v>48907</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44946</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3961</v>
       </c>
       <c r="E9" s="6">
         <v>2019</v>
@@ -1426,17 +1674,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>153886</v>
-      </c>
-      <c r="C10" s="3">
-        <v>143039</v>
-      </c>
-      <c r="D10" s="3">
-        <v>10847</v>
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4">
+        <v>223468</v>
+      </c>
+      <c r="C10" s="4">
+        <v>207701</v>
+      </c>
+      <c r="D10" s="4">
+        <v>15767</v>
       </c>
       <c r="E10" s="6">
         <v>2019</v>
@@ -1450,17 +1698,17 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="21">
-      <c r="A11" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="3">
-        <v>16343697</v>
-      </c>
-      <c r="C11" s="3">
-        <v>15857977</v>
-      </c>
-      <c r="D11" s="3">
-        <v>485720</v>
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4">
+        <v>23742583</v>
+      </c>
+      <c r="C11" s="4">
+        <v>23036662</v>
+      </c>
+      <c r="D11" s="4">
+        <v>705921</v>
       </c>
       <c r="E11" s="6">
         <v>2019</v>
@@ -1474,17 +1722,17 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5889752</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4891485</v>
-      </c>
-      <c r="D12" s="3">
-        <v>998267</v>
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8560789</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7110607</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1450182</v>
       </c>
       <c r="E12" s="6">
         <v>2019</v>
@@ -1498,17 +1746,17 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3">
-        <v>4951473</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2855224</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2096249</v>
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7197294</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4150045</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3047249</v>
       </c>
       <c r="E13" s="6">
         <v>2019</v>
@@ -1522,17 +1770,17 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1342467</v>
-      </c>
-      <c r="C14" s="3">
-        <v>636340</v>
-      </c>
-      <c r="D14" s="3">
-        <v>706126</v>
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1952503</v>
+      </c>
+      <c r="C14" s="4">
+        <v>925458</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1027045</v>
       </c>
       <c r="E14" s="6">
         <v>2019</v>
@@ -1546,17 +1794,17 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2038189</v>
-      </c>
-      <c r="C15" s="3">
-        <v>707724</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1330465</v>
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2960053</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1028427</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1931625</v>
       </c>
       <c r="E15" s="6">
         <v>2019</v>
@@ -1570,17 +1818,17 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="21">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1017676</v>
-      </c>
-      <c r="C16" s="3">
-        <v>626979</v>
-      </c>
-      <c r="D16" s="3">
-        <v>390697</v>
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1478348</v>
+      </c>
+      <c r="C16" s="4">
+        <v>911048</v>
+      </c>
+      <c r="D16" s="4">
+        <v>567299</v>
       </c>
       <c r="E16" s="6">
         <v>2019</v>
@@ -1594,17 +1842,17 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3">
-        <v>18339718</v>
-      </c>
-      <c r="C17" s="3">
-        <v>8308746</v>
-      </c>
-      <c r="D17" s="3">
-        <v>10030973</v>
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4">
+        <v>26673993</v>
+      </c>
+      <c r="C17" s="4">
+        <v>12079175</v>
+      </c>
+      <c r="D17" s="4">
+        <v>14594818</v>
       </c>
       <c r="E17" s="6">
         <v>2019</v>
@@ -1618,17 +1866,17 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3">
-        <v>299976</v>
-      </c>
-      <c r="C18" s="3">
-        <v>247906</v>
-      </c>
-      <c r="D18" s="3">
-        <v>52070</v>
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4">
+        <v>435899</v>
+      </c>
+      <c r="C18" s="4">
+        <v>360288</v>
+      </c>
+      <c r="D18" s="4">
+        <v>75612</v>
       </c>
       <c r="E18" s="6">
         <v>2019</v>
@@ -1642,17 +1890,17 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="21">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1267963</v>
-      </c>
-      <c r="C19" s="3">
-        <v>324027</v>
-      </c>
-      <c r="D19" s="3">
-        <v>943935</v>
+      <c r="A19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1841935</v>
+      </c>
+      <c r="C19" s="4">
+        <v>471171</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1370764</v>
       </c>
       <c r="E19" s="6">
         <v>2019</v>
@@ -1666,17 +1914,17 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3">
-        <v>210058</v>
-      </c>
-      <c r="C20" s="3">
-        <v>85731</v>
-      </c>
-      <c r="D20" s="3">
-        <v>124327</v>
+      <c r="A20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4">
+        <v>305161</v>
+      </c>
+      <c r="C20" s="4">
+        <v>124541</v>
+      </c>
+      <c r="D20" s="4">
+        <v>180620</v>
       </c>
       <c r="E20" s="6">
         <v>2019</v>
@@ -1690,17 +1938,17 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3">
-        <v>115842</v>
-      </c>
-      <c r="C21" s="3">
-        <v>115039</v>
-      </c>
-      <c r="D21" s="2">
-        <v>803</v>
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4">
+        <v>168331</v>
+      </c>
+      <c r="C21" s="4">
+        <v>167165</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1166</v>
       </c>
       <c r="E21" s="6">
         <v>2019</v>
@@ -1714,17 +1962,17 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" s="3">
-        <v>173335</v>
-      </c>
-      <c r="C22" s="3">
-        <v>168822</v>
-      </c>
-      <c r="D22" s="3">
-        <v>4514</v>
+      <c r="A22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4">
+        <v>251962</v>
+      </c>
+      <c r="C22" s="4">
+        <v>245403</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6558</v>
       </c>
       <c r="E22" s="6">
         <v>2019</v>
@@ -1738,17 +1986,17 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B23" s="3">
-        <v>7291841</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3058320</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4233521</v>
+      <c r="A23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10595451</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4446000</v>
+      </c>
+      <c r="D23" s="4">
+        <v>6149451</v>
       </c>
       <c r="E23" s="6">
         <v>2019</v>
@@ -1762,17 +2010,17 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>27154</v>
-      </c>
-      <c r="C24" s="3">
-        <v>20281</v>
-      </c>
-      <c r="D24" s="3">
-        <v>6873</v>
+      <c r="A24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4">
+        <v>39445</v>
+      </c>
+      <c r="C24" s="4">
+        <v>29469</v>
+      </c>
+      <c r="D24" s="4">
+        <v>9976</v>
       </c>
       <c r="E24" s="6">
         <v>2019</v>
@@ -1786,17 +2034,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>475405</v>
-      </c>
-      <c r="C25" s="3">
-        <v>114957</v>
-      </c>
-      <c r="D25" s="3">
-        <v>360448</v>
+      <c r="A25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="4">
+        <v>694797</v>
+      </c>
+      <c r="C25" s="4">
+        <v>171213</v>
+      </c>
+      <c r="D25" s="4">
+        <v>523584</v>
       </c>
       <c r="E25" s="6">
         <v>2019</v>
@@ -1810,17 +2058,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B26" s="3">
-        <v>86191</v>
-      </c>
-      <c r="C26" s="3">
-        <v>84798</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1393</v>
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4">
+        <v>125298</v>
+      </c>
+      <c r="C26" s="4">
+        <v>123274</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2024</v>
       </c>
       <c r="E26" s="6">
         <v>2019</v>
@@ -1834,17 +2082,17 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1144261</v>
-      </c>
-      <c r="C27" s="3">
-        <v>198588</v>
-      </c>
-      <c r="D27" s="3">
-        <v>945672</v>
+      <c r="A27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1661729</v>
+      </c>
+      <c r="C27" s="4">
+        <v>288583</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1373146</v>
       </c>
       <c r="E27" s="6">
         <v>2019</v>
@@ -1858,17 +2106,17 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3">
-        <v>996484</v>
-      </c>
-      <c r="C28" s="3">
-        <v>917767</v>
-      </c>
-      <c r="D28" s="3">
-        <v>78716</v>
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1447661</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1333302</v>
+      </c>
+      <c r="D28" s="4">
+        <v>114359</v>
       </c>
       <c r="E28" s="6">
         <v>2019</v>
@@ -1882,17 +2130,17 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3">
-        <v>6110</v>
-      </c>
-      <c r="C29" s="3">
-        <v>6087</v>
-      </c>
-      <c r="D29" s="2">
-        <v>24</v>
+      <c r="A29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4">
+        <v>8880</v>
+      </c>
+      <c r="C29" s="4">
+        <v>8846</v>
+      </c>
+      <c r="D29" s="8">
+        <v>34</v>
       </c>
       <c r="E29" s="6">
         <v>2019</v>
@@ -1906,17 +2154,17 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3">
-        <v>3728613</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2470809</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1257804</v>
+      <c r="A30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5418579</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3591682</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1826897</v>
       </c>
       <c r="E30" s="6">
         <v>2019</v>
@@ -1930,17 +2178,17 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3">
-        <v>444302</v>
-      </c>
-      <c r="C31" s="3">
-        <v>134500</v>
-      </c>
-      <c r="D31" s="3">
-        <v>309802</v>
+      <c r="A31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4">
+        <v>645381</v>
+      </c>
+      <c r="C31" s="4">
+        <v>195459</v>
+      </c>
+      <c r="D31" s="4">
+        <v>449922</v>
       </c>
       <c r="E31" s="6">
         <v>2019</v>
@@ -1954,17 +2202,17 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3">
-        <v>4671115</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1584912</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3086203</v>
+      <c r="A32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4">
+        <v>6784701</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2303610</v>
+      </c>
+      <c r="D32" s="4">
+        <v>4481091</v>
       </c>
       <c r="E32" s="6">
         <v>2019</v>
@@ -1978,17 +2226,17 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3">
-        <v>4888217</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2886979</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2001238</v>
+      <c r="A33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="4">
+        <v>7104010</v>
+      </c>
+      <c r="C33" s="4">
+        <v>4197091</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2906920</v>
       </c>
       <c r="E33" s="6">
         <v>2019</v>
@@ -2002,17 +2250,17 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3">
-        <v>16547377</v>
-      </c>
-      <c r="C34" s="3">
-        <v>6580822</v>
-      </c>
-      <c r="D34" s="3">
-        <v>9966555</v>
+      <c r="A34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4">
+        <v>24040094</v>
+      </c>
+      <c r="C34" s="4">
+        <v>9564003</v>
+      </c>
+      <c r="D34" s="4">
+        <v>14476091</v>
       </c>
       <c r="E34" s="6">
         <v>2019</v>
@@ -2026,17 +2274,17 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3">
-        <v>265903</v>
-      </c>
-      <c r="C35" s="3">
-        <v>242237</v>
-      </c>
-      <c r="D35" s="3">
-        <v>23666</v>
+      <c r="A35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="4">
+        <v>386343</v>
+      </c>
+      <c r="C35" s="4">
+        <v>351958</v>
+      </c>
+      <c r="D35" s="4">
+        <v>34385</v>
       </c>
       <c r="E35" s="6">
         <v>2019</v>
@@ -2050,17 +2298,17 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3">
-        <v>90637</v>
-      </c>
-      <c r="C36" s="3">
-        <v>90504</v>
-      </c>
-      <c r="D36" s="2">
-        <v>133</v>
+      <c r="A36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4">
+        <v>131728</v>
+      </c>
+      <c r="C36" s="4">
+        <v>131535</v>
+      </c>
+      <c r="D36" s="8">
+        <v>193</v>
       </c>
       <c r="E36" s="6">
         <v>2019</v>
@@ -2074,17 +2322,17 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3">
-        <v>5457228</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2741163</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2716065</v>
+      <c r="A37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="4">
+        <v>7930742</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3984706</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3946036</v>
       </c>
       <c r="E37" s="6">
         <v>2019</v>
@@ -2098,17 +2346,17 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1209955</v>
-      </c>
-      <c r="C38" s="3">
-        <v>997611</v>
-      </c>
-      <c r="D38" s="3">
-        <v>212344</v>
+      <c r="A38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1759142</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1450409</v>
+      </c>
+      <c r="D38" s="4">
+        <v>308732</v>
       </c>
       <c r="E38" s="6">
         <v>2019</v>
@@ -2122,17 +2370,17 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3">
-        <v>2833690</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1992060</v>
-      </c>
-      <c r="D39" s="3">
-        <v>841630</v>
+      <c r="A39" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4117770</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2894904</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1222867</v>
       </c>
       <c r="E39" s="6">
         <v>2019</v>
@@ -2146,17 +2394,17 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3">
-        <v>213316</v>
-      </c>
-      <c r="C40" s="3">
-        <v>213066</v>
-      </c>
-      <c r="D40" s="2">
-        <v>249</v>
+      <c r="A40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="4">
+        <v>309987</v>
+      </c>
+      <c r="C40" s="4">
+        <v>309624</v>
+      </c>
+      <c r="D40" s="8">
+        <v>363</v>
       </c>
       <c r="E40" s="6">
         <v>2019</v>
@@ -2170,17 +2418,17 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3">
-        <v>9132909</v>
-      </c>
-      <c r="C41" s="3">
-        <v>5670525</v>
-      </c>
-      <c r="D41" s="3">
-        <v>3462385</v>
+      <c r="A41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="4">
+        <v>13267210</v>
+      </c>
+      <c r="C41" s="4">
+        <v>8239551</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5027659</v>
       </c>
       <c r="E41" s="6">
         <v>2019</v>
@@ -2194,17 +2442,17 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3">
-        <v>7910667</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="3">
-        <v>7910667</v>
+      <c r="A42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="4">
+        <v>11489583</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="4">
+        <v>11489583</v>
       </c>
       <c r="E42" s="6">
         <v>2019</v>
@@ -2218,17 +2466,17 @@
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B43" s="3">
-        <v>13505627</v>
-      </c>
-      <c r="C43" s="3">
-        <v>3293690</v>
-      </c>
-      <c r="D43" s="3">
-        <v>10211937</v>
+      <c r="A43" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="4">
+        <v>19616907</v>
+      </c>
+      <c r="C43" s="4">
+        <v>4784730</v>
+      </c>
+      <c r="D43" s="4">
+        <v>14832177</v>
       </c>
       <c r="E43" s="6">
         <v>2019</v>
@@ -2242,16 +2490,16 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="3">
-        <v>7975</v>
-      </c>
-      <c r="C44" s="3">
-        <v>7974</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="A44" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="4">
+        <v>11581</v>
+      </c>
+      <c r="C44" s="4">
+        <v>11581</v>
+      </c>
+      <c r="D44" s="8">
         <v>0</v>
       </c>
       <c r="E44" s="6">
@@ -2266,17 +2514,17 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1303736</v>
-      </c>
-      <c r="C45" s="3">
-        <v>797991</v>
-      </c>
-      <c r="D45" s="3">
-        <v>505744</v>
+      <c r="A45" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1893940</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1159257</v>
+      </c>
+      <c r="D45" s="4">
+        <v>734683</v>
       </c>
       <c r="E45" s="6">
         <v>2019</v>
@@ -2290,17 +2538,17 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="3">
-        <v>386306</v>
-      </c>
-      <c r="C46" s="3">
-        <v>380111</v>
-      </c>
-      <c r="D46" s="3">
-        <v>6194</v>
+      <c r="A46" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="4">
+        <v>560815</v>
+      </c>
+      <c r="C46" s="4">
+        <v>551824</v>
+      </c>
+      <c r="D46" s="4">
+        <v>8992</v>
       </c>
       <c r="E46" s="6">
         <v>2019</v>
@@ -2314,17 +2562,17 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="21">
-      <c r="A47" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="3">
-        <v>109966</v>
-      </c>
-      <c r="C47" s="3">
-        <v>105976</v>
-      </c>
-      <c r="D47" s="3">
-        <v>3990</v>
+      <c r="A47" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="4">
+        <v>159681</v>
+      </c>
+      <c r="C47" s="4">
+        <v>153889</v>
+      </c>
+      <c r="D47" s="4">
+        <v>5791</v>
       </c>
       <c r="E47" s="6">
         <v>2019</v>
@@ -2338,17 +2586,17 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="21">
-      <c r="A48" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="3">
-        <v>517481</v>
-      </c>
-      <c r="C48" s="3">
-        <v>27978</v>
-      </c>
-      <c r="D48" s="3">
-        <v>489503</v>
+      <c r="A48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="4">
+        <v>751275</v>
+      </c>
+      <c r="C48" s="4">
+        <v>40673</v>
+      </c>
+      <c r="D48" s="4">
+        <v>710602</v>
       </c>
       <c r="E48" s="6">
         <v>2019</v>
@@ -2362,17 +2610,17 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="21">
-      <c r="A49" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B49" s="3">
-        <v>444220</v>
-      </c>
-      <c r="C49" s="3">
-        <v>333235</v>
-      </c>
-      <c r="D49" s="3">
-        <v>110985</v>
+      <c r="A49" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="4">
+        <v>645721</v>
+      </c>
+      <c r="C49" s="4">
+        <v>484548</v>
+      </c>
+      <c r="D49" s="4">
+        <v>161173</v>
       </c>
       <c r="E49" s="6">
         <v>2019</v>
@@ -2386,17 +2634,17 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="21">
-      <c r="A50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="2">
-        <v>314</v>
-      </c>
-      <c r="C50" s="2">
-        <v>312</v>
-      </c>
-      <c r="D50" s="2">
-        <v>3</v>
+      <c r="A50" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="8">
+        <v>457</v>
+      </c>
+      <c r="C50" s="8">
+        <v>454</v>
+      </c>
+      <c r="D50" s="8">
+        <v>4</v>
       </c>
       <c r="E50" s="6">
         <v>2019</v>
@@ -2410,17 +2658,17 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="21">
-      <c r="A51" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="3">
-        <v>13064273</v>
-      </c>
-      <c r="C51" s="3">
-        <v>7196716</v>
-      </c>
-      <c r="D51" s="3">
-        <v>5867558</v>
+      <c r="A51" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="4">
+        <v>18981787</v>
+      </c>
+      <c r="C51" s="4">
+        <v>10459876</v>
+      </c>
+      <c r="D51" s="4">
+        <v>8521911</v>
       </c>
       <c r="E51" s="6">
         <v>2019</v>
@@ -2434,17 +2682,17 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="3">
-        <v>427623</v>
-      </c>
-      <c r="C52" s="3">
-        <v>427400</v>
-      </c>
-      <c r="D52" s="2">
-        <v>223</v>
+      <c r="A52" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="4">
+        <v>621518</v>
+      </c>
+      <c r="C52" s="4">
+        <v>621194</v>
+      </c>
+      <c r="D52" s="8">
+        <v>324</v>
       </c>
       <c r="E52" s="6">
         <v>2019</v>
@@ -2458,17 +2706,17 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="21">
-      <c r="A53" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="3">
-        <v>1469536</v>
-      </c>
-      <c r="C53" s="3">
-        <v>120824</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1348712</v>
+      <c r="A53" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2133388</v>
+      </c>
+      <c r="C53" s="4">
+        <v>175629</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1957759</v>
       </c>
       <c r="E53" s="6">
         <v>2019</v>
@@ -2482,17 +2730,17 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="3">
-        <v>178650</v>
-      </c>
-      <c r="C54" s="3">
-        <v>161057</v>
-      </c>
-      <c r="D54" s="3">
-        <v>17593</v>
+      <c r="A54" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="4">
+        <v>259558</v>
+      </c>
+      <c r="C54" s="4">
+        <v>234004</v>
+      </c>
+      <c r="D54" s="4">
+        <v>25554</v>
       </c>
       <c r="E54" s="6">
         <v>2019</v>
@@ -2506,17 +2754,17 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" ht="21">
-      <c r="A55" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="3">
-        <v>25856</v>
-      </c>
-      <c r="C55" s="3">
-        <v>25173</v>
-      </c>
-      <c r="D55" s="2">
-        <v>683</v>
+      <c r="A55" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="4">
+        <v>37558</v>
+      </c>
+      <c r="C55" s="4">
+        <v>36567</v>
+      </c>
+      <c r="D55" s="8">
+        <v>991</v>
       </c>
       <c r="E55" s="6">
         <v>2019</v>
@@ -2530,17 +2778,17 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="3">
-        <v>3832</v>
-      </c>
-      <c r="C56" s="3">
-        <v>3071</v>
-      </c>
-      <c r="D56" s="2">
-        <v>761</v>
+      <c r="A56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="4">
+        <v>5571</v>
+      </c>
+      <c r="C56" s="4">
+        <v>4466</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1105</v>
       </c>
       <c r="E56" s="6">
         <v>2019</v>
@@ -2554,17 +2802,17 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B57" s="3">
-        <v>179172</v>
-      </c>
-      <c r="C57" s="3">
-        <v>101838</v>
-      </c>
-      <c r="D57" s="3">
-        <v>77334</v>
+      <c r="A57" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="4">
+        <v>260387</v>
+      </c>
+      <c r="C57" s="4">
+        <v>148035</v>
+      </c>
+      <c r="D57" s="4">
+        <v>112352</v>
       </c>
       <c r="E57" s="6">
         <v>2019</v>
@@ -2578,16 +2826,16 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="2">
-        <v>85</v>
-      </c>
-      <c r="C58" s="2">
-        <v>85</v>
-      </c>
-      <c r="D58" s="2">
+      <c r="A58" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="8">
+        <v>123</v>
+      </c>
+      <c r="C58" s="8">
+        <v>123</v>
+      </c>
+      <c r="D58" s="8">
         <v>0</v>
       </c>
       <c r="E58" s="6">
@@ -2602,17 +2850,17 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="3">
-        <v>3913</v>
-      </c>
-      <c r="C59" s="3">
-        <v>3908</v>
-      </c>
-      <c r="D59" s="2">
-        <v>4</v>
+      <c r="A59" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="4">
+        <v>5692</v>
+      </c>
+      <c r="C59" s="4">
+        <v>5685</v>
+      </c>
+      <c r="D59" s="8">
+        <v>7</v>
       </c>
       <c r="E59" s="6">
         <v>2019</v>
@@ -2626,17 +2874,17 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="3">
-        <v>3376</v>
-      </c>
-      <c r="C60" s="3">
-        <v>1578</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1798</v>
+      <c r="A60" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="4">
+        <v>4919</v>
+      </c>
+      <c r="C60" s="4">
+        <v>2296</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2624</v>
       </c>
       <c r="E60" s="6">
         <v>2019</v>
@@ -2650,17 +2898,17 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="A61" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="8">
         <v>2</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="8">
+        <v>2</v>
+      </c>
+      <c r="D61" s="8">
         <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>0</v>
       </c>
       <c r="E61" s="6">
         <v>2019</v>
@@ -2674,17 +2922,17 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="3">
-        <v>41614</v>
-      </c>
-      <c r="C62" s="3">
-        <v>15412</v>
-      </c>
-      <c r="D62" s="3">
-        <v>26203</v>
+      <c r="A62" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="4">
+        <v>60428</v>
+      </c>
+      <c r="C62" s="4">
+        <v>22394</v>
+      </c>
+      <c r="D62" s="4">
+        <v>38034</v>
       </c>
       <c r="E62" s="6">
         <v>2019</v>
@@ -2698,17 +2946,17 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="3">
-        <v>4368</v>
-      </c>
-      <c r="C63" s="3">
-        <v>4363</v>
-      </c>
-      <c r="D63" s="2">
-        <v>5</v>
+      <c r="A63" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="4">
+        <v>6344</v>
+      </c>
+      <c r="C63" s="4">
+        <v>6337</v>
+      </c>
+      <c r="D63" s="8">
+        <v>7</v>
       </c>
       <c r="E63" s="6">
         <v>2019</v>
@@ -2722,17 +2970,17 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="3">
-        <v>367034</v>
-      </c>
-      <c r="C64" s="3">
-        <v>28600</v>
-      </c>
-      <c r="D64" s="3">
-        <v>338434</v>
+      <c r="A64" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="4">
+        <v>533165</v>
+      </c>
+      <c r="C64" s="4">
+        <v>41567</v>
+      </c>
+      <c r="D64" s="4">
+        <v>491598</v>
       </c>
       <c r="E64" s="6">
         <v>2019</v>
@@ -2746,17 +2994,17 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="3">
-        <v>150340</v>
-      </c>
-      <c r="C65" s="3">
-        <v>149211</v>
-      </c>
-      <c r="D65" s="3">
-        <v>1129</v>
+      <c r="A65" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="4">
+        <v>218473</v>
+      </c>
+      <c r="C65" s="4">
+        <v>216833</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1640</v>
       </c>
       <c r="E65" s="6">
         <v>2019</v>
@@ -2770,17 +3018,17 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="3">
-        <v>803805</v>
-      </c>
-      <c r="C66" s="3">
-        <v>759884</v>
-      </c>
-      <c r="D66" s="3">
-        <v>43920</v>
+      <c r="A66" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1168078</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1104285</v>
+      </c>
+      <c r="D66" s="4">
+        <v>63793</v>
       </c>
       <c r="E66" s="6">
         <v>2019</v>
@@ -2794,17 +3042,17 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="3">
-        <v>82857</v>
-      </c>
-      <c r="C67" s="3">
-        <v>6203</v>
-      </c>
-      <c r="D67" s="3">
-        <v>76654</v>
+      <c r="A67" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="4">
+        <v>120285</v>
+      </c>
+      <c r="C67" s="4">
+        <v>9019</v>
+      </c>
+      <c r="D67" s="4">
+        <v>111265</v>
       </c>
       <c r="E67" s="6">
         <v>2019</v>
@@ -2818,17 +3066,17 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="3">
-        <v>152875</v>
-      </c>
-      <c r="C68" s="3">
-        <v>125474</v>
-      </c>
-      <c r="D68" s="3">
-        <v>27401</v>
+      <c r="A68" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="4">
+        <v>222222</v>
+      </c>
+      <c r="C68" s="4">
+        <v>182417</v>
+      </c>
+      <c r="D68" s="4">
+        <v>39805</v>
       </c>
       <c r="E68" s="6">
         <v>2019</v>
@@ -2842,17 +3090,17 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" s="3">
-        <v>402413</v>
-      </c>
-      <c r="C69" s="3">
-        <v>20833</v>
-      </c>
-      <c r="D69" s="3">
-        <v>381580</v>
+      <c r="A69" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="4">
+        <v>584517</v>
+      </c>
+      <c r="C69" s="4">
+        <v>30280</v>
+      </c>
+      <c r="D69" s="4">
+        <v>554236</v>
       </c>
       <c r="E69" s="6">
         <v>2019</v>
@@ -2866,17 +3114,17 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" s="3">
-        <v>37309</v>
-      </c>
-      <c r="C70" s="3">
-        <v>29943</v>
-      </c>
-      <c r="D70" s="3">
-        <v>7366</v>
+      <c r="A70" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="4">
+        <v>54195</v>
+      </c>
+      <c r="C70" s="4">
+        <v>43492</v>
+      </c>
+      <c r="D70" s="4">
+        <v>10703</v>
       </c>
       <c r="E70" s="6">
         <v>2019</v>
@@ -2890,17 +3138,17 @@
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="3">
-        <v>491126</v>
-      </c>
-      <c r="C71" s="3">
-        <v>310186</v>
-      </c>
-      <c r="D71" s="3">
-        <v>180939</v>
+      <c r="A71" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="4">
+        <v>713442</v>
+      </c>
+      <c r="C71" s="4">
+        <v>450738</v>
+      </c>
+      <c r="D71" s="4">
+        <v>262703</v>
       </c>
       <c r="E71" s="6">
         <v>2019</v>
@@ -2914,17 +3162,17 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="3">
-        <v>276878</v>
-      </c>
-      <c r="C72" s="3">
-        <v>109865</v>
-      </c>
-      <c r="D72" s="3">
-        <v>167013</v>
+      <c r="A72" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="4">
+        <v>402151</v>
+      </c>
+      <c r="C72" s="4">
+        <v>159661</v>
+      </c>
+      <c r="D72" s="4">
+        <v>242491</v>
       </c>
       <c r="E72" s="6">
         <v>2019</v>
@@ -2938,17 +3186,17 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="3">
-        <v>2271</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1229</v>
-      </c>
-      <c r="D73" s="3">
-        <v>1042</v>
+      <c r="A73" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="4">
+        <v>3297</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1784</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1512</v>
       </c>
       <c r="E73" s="6">
         <v>2019</v>
@@ -2962,17 +3210,17 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="3">
-        <v>212407</v>
-      </c>
-      <c r="C74" s="3">
-        <v>131607</v>
-      </c>
-      <c r="D74" s="3">
-        <v>80800</v>
+      <c r="A74" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="4">
+        <v>308796</v>
+      </c>
+      <c r="C74" s="4">
+        <v>191461</v>
+      </c>
+      <c r="D74" s="4">
+        <v>117335</v>
       </c>
       <c r="E74" s="6">
         <v>2019</v>
@@ -2986,17 +3234,17 @@
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="3">
-        <v>324053</v>
-      </c>
-      <c r="C75" s="3">
-        <v>311506</v>
-      </c>
-      <c r="D75" s="3">
-        <v>12547</v>
+      <c r="A75" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="4">
+        <v>470971</v>
+      </c>
+      <c r="C75" s="4">
+        <v>452646</v>
+      </c>
+      <c r="D75" s="4">
+        <v>18325</v>
       </c>
       <c r="E75" s="6">
         <v>2019</v>
@@ -3010,17 +3258,17 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="3">
-        <v>227144</v>
-      </c>
-      <c r="C76" s="3">
-        <v>201776</v>
-      </c>
-      <c r="D76" s="3">
-        <v>25368</v>
+      <c r="A76" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="4">
+        <v>330662</v>
+      </c>
+      <c r="C76" s="4">
+        <v>293787</v>
+      </c>
+      <c r="D76" s="4">
+        <v>36876</v>
       </c>
       <c r="E76" s="6">
         <v>2019</v>
@@ -3034,17 +3282,17 @@
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="3">
-        <v>370160</v>
-      </c>
-      <c r="C77" s="3">
-        <v>173146</v>
-      </c>
-      <c r="D77" s="3">
-        <v>197013</v>
+      <c r="A77" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="4">
+        <v>537564</v>
+      </c>
+      <c r="C77" s="4">
+        <v>251594</v>
+      </c>
+      <c r="D77" s="4">
+        <v>285970</v>
       </c>
       <c r="E77" s="6">
         <v>2019</v>
@@ -3058,17 +3306,17 @@
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" ht="21">
-      <c r="A78" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="3">
-        <v>85591</v>
-      </c>
-      <c r="C78" s="3">
-        <v>70721</v>
-      </c>
-      <c r="D78" s="3">
-        <v>14870</v>
+      <c r="A78" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="4">
+        <v>124406</v>
+      </c>
+      <c r="C78" s="4">
+        <v>102778</v>
+      </c>
+      <c r="D78" s="4">
+        <v>21627</v>
       </c>
       <c r="E78" s="6">
         <v>2019</v>
@@ -3082,17 +3330,17 @@
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B79" s="3">
-        <v>13952</v>
-      </c>
-      <c r="C79" s="3">
-        <v>13814</v>
-      </c>
-      <c r="D79" s="2">
-        <v>138</v>
+      <c r="A79" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="4">
+        <v>20271</v>
+      </c>
+      <c r="C79" s="4">
+        <v>20071</v>
+      </c>
+      <c r="D79" s="8">
+        <v>201</v>
       </c>
       <c r="E79" s="6">
         <v>2019</v>
@@ -3106,17 +3354,17 @@
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B80" s="3">
-        <v>34481</v>
-      </c>
-      <c r="C80" s="3">
-        <v>21437</v>
-      </c>
-      <c r="D80" s="3">
-        <v>13044</v>
+      <c r="A80" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="4">
+        <v>50104</v>
+      </c>
+      <c r="C80" s="4">
+        <v>31158</v>
+      </c>
+      <c r="D80" s="4">
+        <v>18947</v>
       </c>
       <c r="E80" s="6">
         <v>2019</v>
@@ -3130,17 +3378,17 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B81" s="3">
-        <v>140323</v>
-      </c>
-      <c r="C81" s="3">
-        <v>74881</v>
-      </c>
-      <c r="D81" s="3">
-        <v>65442</v>
+      <c r="A81" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="4">
+        <v>203842</v>
+      </c>
+      <c r="C81" s="4">
+        <v>108835</v>
+      </c>
+      <c r="D81" s="4">
+        <v>95007</v>
       </c>
       <c r="E81" s="6">
         <v>2019</v>
@@ -3154,17 +3402,17 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82" s="3">
-        <v>46306</v>
-      </c>
-      <c r="C82" s="3">
-        <v>44690</v>
-      </c>
-      <c r="D82" s="3">
-        <v>1616</v>
+      <c r="A82" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="4">
+        <v>67297</v>
+      </c>
+      <c r="C82" s="4">
+        <v>64944</v>
+      </c>
+      <c r="D82" s="4">
+        <v>2352</v>
       </c>
       <c r="E82" s="6">
         <v>2019</v>
@@ -3178,17 +3426,17 @@
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B83" s="3">
-        <v>272375</v>
-      </c>
-      <c r="C83" s="3">
-        <v>240148</v>
-      </c>
-      <c r="D83" s="3">
-        <v>32227</v>
+      <c r="A83" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="4">
+        <v>396094</v>
+      </c>
+      <c r="C83" s="4">
+        <v>349193</v>
+      </c>
+      <c r="D83" s="4">
+        <v>46901</v>
       </c>
       <c r="E83" s="6">
         <v>2019</v>
@@ -3202,17 +3450,17 @@
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" s="3">
-        <v>174233</v>
-      </c>
-      <c r="C84" s="3">
-        <v>135644</v>
-      </c>
-      <c r="D84" s="3">
-        <v>38589</v>
+      <c r="A84" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="4">
+        <v>253168</v>
+      </c>
+      <c r="C84" s="4">
+        <v>197125</v>
+      </c>
+      <c r="D84" s="4">
+        <v>56043</v>
       </c>
       <c r="E84" s="6">
         <v>2019</v>
@@ -3226,17 +3474,17 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B85" s="3">
-        <v>15169</v>
-      </c>
-      <c r="C85" s="3">
-        <v>11852</v>
-      </c>
-      <c r="D85" s="3">
-        <v>3317</v>
+      <c r="A85" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="4">
+        <v>22041</v>
+      </c>
+      <c r="C85" s="4">
+        <v>17220</v>
+      </c>
+      <c r="D85" s="4">
+        <v>4821</v>
       </c>
       <c r="E85" s="6">
         <v>2019</v>
@@ -3250,17 +3498,17 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B86" s="3">
-        <v>20376</v>
-      </c>
-      <c r="C86" s="3">
-        <v>14224</v>
-      </c>
-      <c r="D86" s="3">
-        <v>6152</v>
+      <c r="A86" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="4">
+        <v>29622</v>
+      </c>
+      <c r="C86" s="4">
+        <v>20683</v>
+      </c>
+      <c r="D86" s="4">
+        <v>8939</v>
       </c>
       <c r="E86" s="6">
         <v>2019</v>
@@ -3274,17 +3522,17 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" ht="21">
-      <c r="A87" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87" s="3">
-        <v>1278794</v>
-      </c>
-      <c r="C87" s="3">
-        <v>1137987</v>
-      </c>
-      <c r="D87" s="3">
-        <v>140806</v>
+      <c r="A87" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="4">
+        <v>1858399</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1653690</v>
+      </c>
+      <c r="D87" s="4">
+        <v>204709</v>
       </c>
       <c r="E87" s="6">
         <v>2019</v>
@@ -3298,16 +3546,16 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" ht="21">
-      <c r="A88" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" s="3">
-        <v>8872</v>
-      </c>
-      <c r="C88" s="3">
-        <v>8872</v>
-      </c>
-      <c r="D88" s="2">
+      <c r="A88" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="4">
+        <v>12896</v>
+      </c>
+      <c r="C88" s="4">
+        <v>12895</v>
+      </c>
+      <c r="D88" s="8">
         <v>1</v>
       </c>
       <c r="E88" s="6">
@@ -3322,17 +3570,17 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" s="3">
-        <v>13579</v>
-      </c>
-      <c r="C89" s="3">
-        <v>13320</v>
-      </c>
-      <c r="D89" s="2">
-        <v>259</v>
+      <c r="A89" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="4">
+        <v>19732</v>
+      </c>
+      <c r="C89" s="4">
+        <v>19356</v>
+      </c>
+      <c r="D89" s="8">
+        <v>376</v>
       </c>
       <c r="E89" s="6">
         <v>2019</v>
@@ -3346,16 +3594,16 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90" s="2">
-        <v>314</v>
-      </c>
-      <c r="C90" s="2">
-        <v>314</v>
-      </c>
-      <c r="D90" s="2">
+      <c r="A90" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="8">
+        <v>456</v>
+      </c>
+      <c r="C90" s="8">
+        <v>456</v>
+      </c>
+      <c r="D90" s="8">
         <v>0</v>
       </c>
       <c r="E90" s="6">
@@ -3370,17 +3618,17 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B91" s="3">
-        <v>145222</v>
-      </c>
-      <c r="C91" s="3">
-        <v>127166</v>
-      </c>
-      <c r="D91" s="3">
-        <v>18056</v>
+      <c r="A91" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="4">
+        <v>211226</v>
+      </c>
+      <c r="C91" s="4">
+        <v>184907</v>
+      </c>
+      <c r="D91" s="4">
+        <v>26319</v>
       </c>
       <c r="E91" s="6">
         <v>2019</v>
@@ -3394,16 +3642,16 @@
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" ht="21">
-      <c r="A92" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B92" s="3">
-        <v>2987</v>
-      </c>
-      <c r="C92" s="3">
-        <v>2987</v>
-      </c>
-      <c r="D92" s="2">
+      <c r="A92" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="4">
+        <v>4342</v>
+      </c>
+      <c r="C92" s="4">
+        <v>4342</v>
+      </c>
+      <c r="D92" s="8">
         <v>0</v>
       </c>
       <c r="E92" s="6">
@@ -3418,17 +3666,17 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" ht="21">
-      <c r="A93" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B93" s="3">
-        <v>39936</v>
-      </c>
-      <c r="C93" s="3">
-        <v>15707</v>
-      </c>
-      <c r="D93" s="3">
-        <v>24230</v>
+      <c r="A93" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="4">
+        <v>58017</v>
+      </c>
+      <c r="C93" s="4">
+        <v>22828</v>
+      </c>
+      <c r="D93" s="4">
+        <v>35189</v>
       </c>
       <c r="E93" s="6">
         <v>2019</v>
@@ -3442,17 +3690,17 @@
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94" s="3">
-        <v>48147</v>
-      </c>
-      <c r="C94" s="3">
-        <v>47602</v>
-      </c>
-      <c r="D94" s="2">
-        <v>545</v>
+      <c r="A94" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="4">
+        <v>69958</v>
+      </c>
+      <c r="C94" s="4">
+        <v>69164</v>
+      </c>
+      <c r="D94" s="8">
+        <v>794</v>
       </c>
       <c r="E94" s="6">
         <v>2019</v>
@@ -3466,17 +3714,17 @@
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B95" s="3">
-        <v>2885831</v>
-      </c>
-      <c r="C95" s="3">
-        <v>1080258</v>
-      </c>
-      <c r="D95" s="3">
-        <v>1805572</v>
+      <c r="A95" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="4">
+        <v>4192356</v>
+      </c>
+      <c r="C95" s="4">
+        <v>1570049</v>
+      </c>
+      <c r="D95" s="4">
+        <v>2622307</v>
       </c>
       <c r="E95" s="6">
         <v>2019</v>
@@ -3490,17 +3738,17 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" ht="21">
-      <c r="A96" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B96" s="2">
+      <c r="A96" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="8">
         <v>0</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="8">
         <v>0</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>7</v>
+      <c r="D96" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E96" s="6">
         <v>2019</v>
@@ -3514,17 +3762,17 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" ht="21">
-      <c r="A97" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="3">
-        <v>158142</v>
-      </c>
-      <c r="C97" s="3">
-        <v>128066</v>
-      </c>
-      <c r="D97" s="3">
-        <v>30075</v>
+      <c r="A97" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="4">
+        <v>229953</v>
+      </c>
+      <c r="C97" s="4">
+        <v>186156</v>
+      </c>
+      <c r="D97" s="4">
+        <v>43797</v>
       </c>
       <c r="E97" s="6">
         <v>2019</v>
@@ -3538,17 +3786,17 @@
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" ht="21">
-      <c r="A98" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B98" s="3">
-        <v>269116</v>
-      </c>
-      <c r="C98" s="3">
-        <v>252763</v>
-      </c>
-      <c r="D98" s="3">
-        <v>16354</v>
+      <c r="A98" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="4">
+        <v>391130</v>
+      </c>
+      <c r="C98" s="4">
+        <v>367384</v>
+      </c>
+      <c r="D98" s="4">
+        <v>23746</v>
       </c>
       <c r="E98" s="6">
         <v>2019</v>
@@ -3562,17 +3810,17 @@
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" ht="21">
-      <c r="A99" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B99" s="3">
-        <v>137105</v>
-      </c>
-      <c r="C99" s="3">
-        <v>133569</v>
-      </c>
-      <c r="D99" s="3">
-        <v>3536</v>
+      <c r="A99" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="4">
+        <v>199256</v>
+      </c>
+      <c r="C99" s="4">
+        <v>194121</v>
+      </c>
+      <c r="D99" s="4">
+        <v>5135</v>
       </c>
       <c r="E99" s="6">
         <v>2019</v>
@@ -3586,17 +3834,17 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" ht="21">
-      <c r="A100" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B100" s="3">
-        <v>96101</v>
-      </c>
-      <c r="C100" s="3">
-        <v>82733</v>
-      </c>
-      <c r="D100" s="3">
-        <v>13367</v>
+      <c r="A100" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="4">
+        <v>139778</v>
+      </c>
+      <c r="C100" s="4">
+        <v>120250</v>
+      </c>
+      <c r="D100" s="4">
+        <v>19528</v>
       </c>
       <c r="E100" s="6">
         <v>2019</v>
@@ -3610,17 +3858,17 @@
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B101" s="3">
-        <v>49237</v>
-      </c>
-      <c r="C101" s="3">
-        <v>45364</v>
-      </c>
-      <c r="D101" s="3">
-        <v>3873</v>
+      <c r="A101" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="4">
+        <v>71545</v>
+      </c>
+      <c r="C101" s="4">
+        <v>65921</v>
+      </c>
+      <c r="D101" s="4">
+        <v>5624</v>
       </c>
       <c r="E101" s="6">
         <v>2019</v>
@@ -3634,17 +3882,17 @@
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" ht="21">
-      <c r="A102" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" s="3">
-        <v>25006</v>
-      </c>
-      <c r="C102" s="3">
-        <v>16519</v>
-      </c>
-      <c r="D102" s="3">
-        <v>8487</v>
+      <c r="A102" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="4">
+        <v>36339</v>
+      </c>
+      <c r="C102" s="4">
+        <v>24012</v>
+      </c>
+      <c r="D102" s="4">
+        <v>12327</v>
       </c>
       <c r="E102" s="6">
         <v>2019</v>
@@ -3658,17 +3906,17 @@
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" ht="21">
-      <c r="A103" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" s="3">
-        <v>410043</v>
-      </c>
-      <c r="C103" s="3">
-        <v>142055</v>
-      </c>
-      <c r="D103" s="3">
-        <v>267989</v>
+      <c r="A103" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="4">
+        <v>595776</v>
+      </c>
+      <c r="C103" s="4">
+        <v>206412</v>
+      </c>
+      <c r="D103" s="4">
+        <v>389364</v>
       </c>
       <c r="E103" s="6">
         <v>2019</v>
@@ -3682,17 +3930,17 @@
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="1:10" ht="21">
-      <c r="A104" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B104" s="3">
-        <v>260782</v>
-      </c>
-      <c r="C104" s="3">
-        <v>62726</v>
-      </c>
-      <c r="D104" s="3">
-        <v>198057</v>
+      <c r="A104" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="4">
+        <v>378760</v>
+      </c>
+      <c r="C104" s="4">
+        <v>91166</v>
+      </c>
+      <c r="D104" s="4">
+        <v>287594</v>
       </c>
       <c r="E104" s="6">
         <v>2019</v>
@@ -3706,17 +3954,17 @@
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10" ht="21">
-      <c r="A105" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B105" s="3">
-        <v>53686</v>
-      </c>
-      <c r="C105" s="3">
-        <v>25294</v>
-      </c>
-      <c r="D105" s="3">
-        <v>28392</v>
+      <c r="A105" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="4">
+        <v>77982</v>
+      </c>
+      <c r="C105" s="4">
+        <v>36755</v>
+      </c>
+      <c r="D105" s="4">
+        <v>41227</v>
       </c>
       <c r="E105" s="6">
         <v>2019</v>
@@ -3730,17 +3978,17 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" ht="21">
-      <c r="A106" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B106" s="3">
-        <v>4946</v>
-      </c>
-      <c r="C106" s="3">
-        <v>4587</v>
-      </c>
-      <c r="D106" s="2">
-        <v>359</v>
+      <c r="A106" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="4">
+        <v>7186</v>
+      </c>
+      <c r="C106" s="4">
+        <v>6664</v>
+      </c>
+      <c r="D106" s="8">
+        <v>522</v>
       </c>
       <c r="E106" s="6">
         <v>2019</v>
@@ -3754,16 +4002,16 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" ht="21">
-      <c r="A107" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B107" s="2">
-        <v>246</v>
-      </c>
-      <c r="C107" s="2">
-        <v>246</v>
-      </c>
-      <c r="D107" s="2">
+      <c r="A107" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="8">
+        <v>358</v>
+      </c>
+      <c r="C107" s="8">
+        <v>358</v>
+      </c>
+      <c r="D107" s="8">
         <v>0</v>
       </c>
       <c r="E107" s="6">
@@ -3778,17 +4026,17 @@
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" ht="21">
-      <c r="A108" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B108" s="3">
-        <v>2533</v>
-      </c>
-      <c r="C108" s="3">
-        <v>2510</v>
-      </c>
-      <c r="D108" s="2">
-        <v>23</v>
+      <c r="A108" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="4">
+        <v>3680</v>
+      </c>
+      <c r="C108" s="4">
+        <v>3646</v>
+      </c>
+      <c r="D108" s="8">
+        <v>34</v>
       </c>
       <c r="E108" s="6">
         <v>2019</v>
@@ -3802,17 +4050,17 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" ht="21">
-      <c r="A109" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B109" s="3">
-        <v>32713</v>
-      </c>
-      <c r="C109" s="3">
-        <v>2391</v>
-      </c>
-      <c r="D109" s="3">
-        <v>30321</v>
+      <c r="A109" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="4">
+        <v>48012</v>
+      </c>
+      <c r="C109" s="4">
+        <v>3477</v>
+      </c>
+      <c r="D109" s="4">
+        <v>44535</v>
       </c>
       <c r="E109" s="6">
         <v>2019</v>
@@ -3826,16 +4074,16 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" ht="21">
-      <c r="A110" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B110" s="3">
-        <v>1947</v>
-      </c>
-      <c r="C110" s="3">
-        <v>1947</v>
-      </c>
-      <c r="D110" s="2">
+      <c r="A110" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="4">
+        <v>2828</v>
+      </c>
+      <c r="C110" s="4">
+        <v>2828</v>
+      </c>
+      <c r="D110" s="8">
         <v>0</v>
       </c>
       <c r="E110" s="6">
@@ -3850,17 +4098,17 @@
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B111" s="3">
-        <v>97369</v>
-      </c>
-      <c r="C111" s="3">
-        <v>10034</v>
-      </c>
-      <c r="D111" s="3">
-        <v>87335</v>
+      <c r="A111" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="4">
+        <v>141502</v>
+      </c>
+      <c r="C111" s="4">
+        <v>14571</v>
+      </c>
+      <c r="D111" s="4">
+        <v>126931</v>
       </c>
       <c r="E111" s="6">
         <v>2019</v>
@@ -3874,17 +4122,17 @@
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" ht="21">
-      <c r="A112" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B112" s="2">
-        <v>115</v>
-      </c>
-      <c r="C112" s="2">
-        <v>115</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>7</v>
+      <c r="A112" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="8">
+        <v>167</v>
+      </c>
+      <c r="C112" s="8">
+        <v>167</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E112" s="6">
         <v>2019</v>
@@ -3898,17 +4146,17 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" ht="21">
-      <c r="A113" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B113" s="3">
-        <v>1585289</v>
-      </c>
-      <c r="C113" s="3">
-        <v>1168552</v>
-      </c>
-      <c r="D113" s="3">
-        <v>416737</v>
+      <c r="A113" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="4">
+        <v>2306269</v>
+      </c>
+      <c r="C113" s="4">
+        <v>1699042</v>
+      </c>
+      <c r="D113" s="4">
+        <v>607227</v>
       </c>
       <c r="E113" s="6">
         <v>2019</v>
@@ -3922,17 +4170,17 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B114" s="3">
-        <v>746571</v>
-      </c>
-      <c r="C114" s="3">
-        <v>421679</v>
-      </c>
-      <c r="D114" s="3">
-        <v>324892</v>
+      <c r="A114" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1086565</v>
+      </c>
+      <c r="C114" s="4">
+        <v>613053</v>
+      </c>
+      <c r="D114" s="4">
+        <v>473512</v>
       </c>
       <c r="E114" s="6">
         <v>2019</v>
@@ -3946,17 +4194,17 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" ht="21">
-      <c r="A115" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B115" s="3">
-        <v>4989386</v>
-      </c>
-      <c r="C115" s="3">
-        <v>3730678</v>
-      </c>
-      <c r="D115" s="3">
-        <v>1258708</v>
+      <c r="A115" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="4">
+        <v>7250037</v>
+      </c>
+      <c r="C115" s="4">
+        <v>5420394</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1829642</v>
       </c>
       <c r="E115" s="6">
         <v>2019</v>
@@ -3970,17 +4218,17 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" ht="21">
-      <c r="A116" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B116" s="3">
-        <v>11184380</v>
-      </c>
-      <c r="C116" s="3">
-        <v>4907502</v>
-      </c>
-      <c r="D116" s="3">
-        <v>6276878</v>
+      <c r="A116" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="4">
+        <v>16295838</v>
+      </c>
+      <c r="C116" s="4">
+        <v>7138328</v>
+      </c>
+      <c r="D116" s="4">
+        <v>9157510</v>
       </c>
       <c r="E116" s="6">
         <v>2019</v>
@@ -3994,17 +4242,17 @@
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" ht="21">
-      <c r="A117" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B117" s="3">
-        <v>3884271</v>
-      </c>
-      <c r="C117" s="3">
-        <v>2144824</v>
-      </c>
-      <c r="D117" s="3">
-        <v>1739448</v>
+      <c r="A117" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="4">
+        <v>5654224</v>
+      </c>
+      <c r="C117" s="4">
+        <v>3119147</v>
+      </c>
+      <c r="D117" s="4">
+        <v>2535076</v>
       </c>
       <c r="E117" s="6">
         <v>2019</v>
@@ -4018,17 +4266,17 @@
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" ht="21">
-      <c r="A118" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B118" s="3">
-        <v>1003691</v>
-      </c>
-      <c r="C118" s="3">
-        <v>206654</v>
-      </c>
-      <c r="D118" s="3">
-        <v>797037</v>
+      <c r="A118" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" s="4">
+        <v>1458385</v>
+      </c>
+      <c r="C118" s="4">
+        <v>300262</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1158123</v>
       </c>
       <c r="E118" s="6">
         <v>2019</v>
@@ -4042,17 +4290,17 @@
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" ht="21">
-      <c r="A119" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B119" s="3">
-        <v>3307301</v>
-      </c>
-      <c r="C119" s="3">
-        <v>1915943</v>
-      </c>
-      <c r="D119" s="3">
-        <v>1391358</v>
+      <c r="A119" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="4">
+        <v>4818433</v>
+      </c>
+      <c r="C119" s="4">
+        <v>2786637</v>
+      </c>
+      <c r="D119" s="4">
+        <v>2031796</v>
       </c>
       <c r="E119" s="6">
         <v>2019</v>
@@ -4066,17 +4314,17 @@
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" ht="21">
-      <c r="A120" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B120" s="3">
-        <v>41557</v>
-      </c>
-      <c r="C120" s="3">
-        <v>25371</v>
-      </c>
-      <c r="D120" s="3">
-        <v>16185</v>
+      <c r="A120" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="4">
+        <v>60468</v>
+      </c>
+      <c r="C120" s="4">
+        <v>36883</v>
+      </c>
+      <c r="D120" s="4">
+        <v>23585</v>
       </c>
       <c r="E120" s="6">
         <v>2019</v>
@@ -4090,17 +4338,17 @@
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" ht="21">
-      <c r="A121" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B121" s="3">
-        <v>5145200</v>
-      </c>
-      <c r="C121" s="3">
-        <v>4521292</v>
-      </c>
-      <c r="D121" s="3">
-        <v>623909</v>
+      <c r="A121" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="4">
+        <v>7481383</v>
+      </c>
+      <c r="C121" s="4">
+        <v>6571899</v>
+      </c>
+      <c r="D121" s="4">
+        <v>909484</v>
       </c>
       <c r="E121" s="6">
         <v>2019</v>
@@ -4114,17 +4362,17 @@
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" ht="21">
-      <c r="A122" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B122" s="3">
-        <v>595763</v>
-      </c>
-      <c r="C122" s="3">
-        <v>543931</v>
-      </c>
-      <c r="D122" s="3">
-        <v>51833</v>
+      <c r="A122" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="4">
+        <v>866576</v>
+      </c>
+      <c r="C122" s="4">
+        <v>790894</v>
+      </c>
+      <c r="D122" s="4">
+        <v>75682</v>
       </c>
       <c r="E122" s="6">
         <v>2019</v>
@@ -4138,17 +4386,17 @@
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" ht="21">
-      <c r="A123" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B123" s="3">
-        <v>412473</v>
-      </c>
-      <c r="C123" s="3">
-        <v>269231</v>
-      </c>
-      <c r="D123" s="3">
-        <v>143242</v>
+      <c r="A123" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="4">
+        <v>600597</v>
+      </c>
+      <c r="C123" s="4">
+        <v>391491</v>
+      </c>
+      <c r="D123" s="4">
+        <v>209106</v>
       </c>
       <c r="E123" s="6">
         <v>2019</v>
@@ -4162,17 +4410,17 @@
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" ht="21">
-      <c r="A124" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B124" s="3">
-        <v>2287459</v>
-      </c>
-      <c r="C124" s="3">
-        <v>1730078</v>
-      </c>
-      <c r="D124" s="3">
-        <v>557380</v>
+      <c r="A124" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="4">
+        <v>3328071</v>
+      </c>
+      <c r="C124" s="4">
+        <v>2515578</v>
+      </c>
+      <c r="D124" s="4">
+        <v>812493</v>
       </c>
       <c r="E124" s="6">
         <v>2019</v>
@@ -4186,17 +4434,17 @@
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" ht="21">
-      <c r="A125" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B125" s="3">
-        <v>44294</v>
-      </c>
-      <c r="C125" s="3">
-        <v>36558</v>
-      </c>
-      <c r="D125" s="3">
-        <v>7736</v>
+      <c r="A125" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" s="4">
+        <v>64376</v>
+      </c>
+      <c r="C125" s="4">
+        <v>53132</v>
+      </c>
+      <c r="D125" s="4">
+        <v>11244</v>
       </c>
       <c r="E125" s="6">
         <v>2019</v>
@@ -4210,17 +4458,17 @@
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" ht="21">
-      <c r="A126" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B126" s="2">
-        <v>54</v>
-      </c>
-      <c r="C126" s="2">
-        <v>52</v>
-      </c>
-      <c r="D126" s="2">
-        <v>3</v>
+      <c r="A126" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="8">
+        <v>79</v>
+      </c>
+      <c r="C126" s="8">
+        <v>75</v>
+      </c>
+      <c r="D126" s="8">
+        <v>4</v>
       </c>
       <c r="E126" s="6">
         <v>2019</v>
@@ -4234,17 +4482,17 @@
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" ht="21">
-      <c r="A127" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B127" s="3">
-        <v>652383</v>
-      </c>
-      <c r="C127" s="3">
-        <v>186981</v>
-      </c>
-      <c r="D127" s="3">
-        <v>465402</v>
+      <c r="A127" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" s="4">
+        <v>952013</v>
+      </c>
+      <c r="C127" s="4">
+        <v>272240</v>
+      </c>
+      <c r="D127" s="4">
+        <v>679774</v>
       </c>
       <c r="E127" s="6">
         <v>2019</v>
@@ -4258,17 +4506,17 @@
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" ht="21">
-      <c r="A128" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B128" s="3">
-        <v>152521</v>
-      </c>
-      <c r="C128" s="3">
-        <v>99869</v>
-      </c>
-      <c r="D128" s="3">
-        <v>52652</v>
+      <c r="A128" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="4">
+        <v>221862</v>
+      </c>
+      <c r="C128" s="4">
+        <v>145205</v>
+      </c>
+      <c r="D128" s="4">
+        <v>76657</v>
       </c>
       <c r="E128" s="6">
         <v>2019</v>
@@ -4282,17 +4530,17 @@
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10" ht="21">
-      <c r="A129" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B129" s="3">
-        <v>512704</v>
-      </c>
-      <c r="C129" s="3">
-        <v>208487</v>
-      </c>
-      <c r="D129" s="3">
-        <v>304217</v>
+      <c r="A129" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="4">
+        <v>746805</v>
+      </c>
+      <c r="C129" s="4">
+        <v>303144</v>
+      </c>
+      <c r="D129" s="4">
+        <v>443661</v>
       </c>
       <c r="E129" s="6">
         <v>2019</v>
@@ -4306,16 +4554,16 @@
       <c r="J129" s="2"/>
     </row>
     <row r="130" spans="1:10" ht="21">
-      <c r="A130" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B130" s="2">
-        <v>159</v>
-      </c>
-      <c r="C130" s="2">
-        <v>159</v>
-      </c>
-      <c r="D130" s="2">
+      <c r="A130" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" s="8">
+        <v>231</v>
+      </c>
+      <c r="C130" s="8">
+        <v>230</v>
+      </c>
+      <c r="D130" s="8">
         <v>0</v>
       </c>
       <c r="E130" s="6">
@@ -4330,17 +4578,17 @@
       <c r="J130" s="2"/>
     </row>
     <row r="131" spans="1:10" ht="21">
-      <c r="A131" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B131" s="3">
-        <v>624717</v>
-      </c>
-      <c r="C131" s="3">
-        <v>380719</v>
-      </c>
-      <c r="D131" s="3">
-        <v>243998</v>
+      <c r="A131" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" s="4">
+        <v>909700</v>
+      </c>
+      <c r="C131" s="4">
+        <v>553537</v>
+      </c>
+      <c r="D131" s="4">
+        <v>356163</v>
       </c>
       <c r="E131" s="6">
         <v>2019</v>
@@ -4354,17 +4602,17 @@
       <c r="J131" s="2"/>
     </row>
     <row r="132" spans="1:10" ht="21">
-      <c r="A132" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B132" s="3">
-        <v>14955</v>
-      </c>
-      <c r="C132" s="3">
-        <v>5099</v>
-      </c>
-      <c r="D132" s="3">
-        <v>9856</v>
+      <c r="A132" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="4">
+        <v>21727</v>
+      </c>
+      <c r="C132" s="4">
+        <v>7409</v>
+      </c>
+      <c r="D132" s="4">
+        <v>14318</v>
       </c>
       <c r="E132" s="6">
         <v>2019</v>
@@ -4378,17 +4626,17 @@
       <c r="J132" s="2"/>
     </row>
     <row r="133" spans="1:10" ht="21">
-      <c r="A133" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B133" s="3">
-        <v>11362</v>
-      </c>
-      <c r="C133" s="3">
-        <v>3791</v>
-      </c>
-      <c r="D133" s="3">
-        <v>7571</v>
+      <c r="A133" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="4">
+        <v>16575</v>
+      </c>
+      <c r="C133" s="4">
+        <v>5516</v>
+      </c>
+      <c r="D133" s="4">
+        <v>11059</v>
       </c>
       <c r="E133" s="6">
         <v>2019</v>
@@ -4402,17 +4650,17 @@
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="1:10" ht="21">
-      <c r="A134" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B134" s="3">
-        <v>74859</v>
-      </c>
-      <c r="C134" s="3">
-        <v>54138</v>
-      </c>
-      <c r="D134" s="3">
-        <v>20722</v>
+      <c r="A134" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="4">
+        <v>108950</v>
+      </c>
+      <c r="C134" s="4">
+        <v>78832</v>
+      </c>
+      <c r="D134" s="4">
+        <v>30118</v>
       </c>
       <c r="E134" s="6">
         <v>2019</v>
@@ -4426,17 +4674,17 @@
       <c r="J134" s="2"/>
     </row>
     <row r="135" spans="1:10" ht="21">
-      <c r="A135" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B135" s="3">
-        <v>1241</v>
-      </c>
-      <c r="C135" s="2">
-        <v>705</v>
-      </c>
-      <c r="D135" s="2">
-        <v>536</v>
+      <c r="A135" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="4">
+        <v>1809</v>
+      </c>
+      <c r="C135" s="4">
+        <v>1025</v>
+      </c>
+      <c r="D135" s="8">
+        <v>784</v>
       </c>
       <c r="E135" s="6">
         <v>2019</v>
@@ -4450,17 +4698,17 @@
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" ht="21">
-      <c r="A136" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B136" s="3">
-        <v>372953</v>
-      </c>
-      <c r="C136" s="3">
-        <v>189516</v>
-      </c>
-      <c r="D136" s="3">
-        <v>183437</v>
+      <c r="A136" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="4">
+        <v>542148</v>
+      </c>
+      <c r="C136" s="4">
+        <v>275424</v>
+      </c>
+      <c r="D136" s="4">
+        <v>266724</v>
       </c>
       <c r="E136" s="6">
         <v>2019</v>
@@ -4474,17 +4722,17 @@
       <c r="J136" s="2"/>
     </row>
     <row r="137" spans="1:10" ht="21">
-      <c r="A137" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B137" s="3">
-        <v>1746503</v>
-      </c>
-      <c r="C137" s="3">
-        <v>1504092</v>
-      </c>
-      <c r="D137" s="3">
-        <v>242411</v>
+      <c r="A137" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" s="4">
+        <v>2540582</v>
+      </c>
+      <c r="C137" s="4">
+        <v>2187013</v>
+      </c>
+      <c r="D137" s="4">
+        <v>353569</v>
       </c>
       <c r="E137" s="6">
         <v>2019</v>
@@ -4498,17 +4746,17 @@
       <c r="J137" s="2"/>
     </row>
     <row r="138" spans="1:10" ht="21">
-      <c r="A138" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B138" s="3">
-        <v>421441</v>
-      </c>
-      <c r="C138" s="3">
-        <v>279801</v>
-      </c>
-      <c r="D138" s="3">
-        <v>141640</v>
+      <c r="A138" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" s="4">
+        <v>613594</v>
+      </c>
+      <c r="C138" s="4">
+        <v>407010</v>
+      </c>
+      <c r="D138" s="4">
+        <v>206584</v>
       </c>
       <c r="E138" s="6">
         <v>2019</v>
@@ -4522,17 +4770,17 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:10" ht="21">
-      <c r="A139" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B139" s="2">
-        <v>228</v>
-      </c>
-      <c r="C139" s="2">
-        <v>161</v>
-      </c>
-      <c r="D139" s="2">
-        <v>67</v>
+      <c r="A139" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="8">
+        <v>334</v>
+      </c>
+      <c r="C139" s="8">
+        <v>235</v>
+      </c>
+      <c r="D139" s="8">
+        <v>99</v>
       </c>
       <c r="E139" s="6">
         <v>2019</v>
@@ -4546,17 +4794,17 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:10" ht="21">
-      <c r="A140" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B140" s="3">
-        <v>1154779</v>
-      </c>
-      <c r="C140" s="3">
-        <v>589633</v>
-      </c>
-      <c r="D140" s="3">
-        <v>565145</v>
+      <c r="A140" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="4">
+        <v>1680796</v>
+      </c>
+      <c r="C140" s="4">
+        <v>857664</v>
+      </c>
+      <c r="D140" s="4">
+        <v>823132</v>
       </c>
       <c r="E140" s="6">
         <v>2019</v>
@@ -4570,17 +4818,17 @@
       <c r="J140" s="2"/>
     </row>
     <row r="141" spans="1:10" ht="21">
-      <c r="A141" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B141" s="3">
-        <v>1182347</v>
-      </c>
-      <c r="C141" s="3">
-        <v>272488</v>
-      </c>
-      <c r="D141" s="3">
-        <v>909860</v>
+      <c r="A141" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="4">
+        <v>1723887</v>
+      </c>
+      <c r="C141" s="4">
+        <v>396467</v>
+      </c>
+      <c r="D141" s="4">
+        <v>1327420</v>
       </c>
       <c r="E141" s="6">
         <v>2019</v>
@@ -4594,17 +4842,17 @@
       <c r="J141" s="2"/>
     </row>
     <row r="142" spans="1:10" ht="21">
-      <c r="A142" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B142" s="3">
-        <v>73904</v>
-      </c>
-      <c r="C142" s="3">
-        <v>57867</v>
-      </c>
-      <c r="D142" s="3">
-        <v>16037</v>
+      <c r="A142" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" s="4">
+        <v>107559</v>
+      </c>
+      <c r="C142" s="4">
+        <v>84160</v>
+      </c>
+      <c r="D142" s="4">
+        <v>23399</v>
       </c>
       <c r="E142" s="6">
         <v>2019</v>
@@ -4618,17 +4866,17 @@
       <c r="J142" s="2"/>
     </row>
     <row r="143" spans="1:10" ht="21">
-      <c r="A143" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B143" s="3">
-        <v>85511</v>
-      </c>
-      <c r="C143" s="3">
-        <v>72286</v>
-      </c>
-      <c r="D143" s="3">
-        <v>13225</v>
+      <c r="A143" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" s="4">
+        <v>124439</v>
+      </c>
+      <c r="C143" s="4">
+        <v>105112</v>
+      </c>
+      <c r="D143" s="4">
+        <v>19326</v>
       </c>
       <c r="E143" s="6">
         <v>2019</v>
@@ -4642,17 +4890,17 @@
       <c r="J143" s="2"/>
     </row>
     <row r="144" spans="1:10" ht="21">
-      <c r="A144" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B144" s="3">
-        <v>128672</v>
-      </c>
-      <c r="C144" s="3">
-        <v>102994</v>
-      </c>
-      <c r="D144" s="3">
-        <v>25678</v>
+      <c r="A144" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" s="4">
+        <v>187151</v>
+      </c>
+      <c r="C144" s="4">
+        <v>149728</v>
+      </c>
+      <c r="D144" s="4">
+        <v>37423</v>
       </c>
       <c r="E144" s="6">
         <v>2019</v>
@@ -4666,17 +4914,17 @@
       <c r="J144" s="2"/>
     </row>
     <row r="145" spans="1:10" ht="21">
-      <c r="A145" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B145" s="3">
-        <v>91049</v>
-      </c>
-      <c r="C145" s="3">
-        <v>88169</v>
-      </c>
-      <c r="D145" s="3">
-        <v>2881</v>
+      <c r="A145" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" s="4">
+        <v>132326</v>
+      </c>
+      <c r="C145" s="4">
+        <v>128142</v>
+      </c>
+      <c r="D145" s="4">
+        <v>4185</v>
       </c>
       <c r="E145" s="6">
         <v>2019</v>
@@ -4690,17 +4938,17 @@
       <c r="J145" s="2"/>
     </row>
     <row r="146" spans="1:10" ht="21">
-      <c r="A146" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B146" s="3">
-        <v>34200</v>
-      </c>
-      <c r="C146" s="3">
-        <v>16972</v>
-      </c>
-      <c r="D146" s="3">
-        <v>17228</v>
+      <c r="A146" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" s="4">
+        <v>49679</v>
+      </c>
+      <c r="C146" s="4">
+        <v>24659</v>
+      </c>
+      <c r="D146" s="4">
+        <v>25020</v>
       </c>
       <c r="E146" s="6">
         <v>2019</v>
@@ -4714,17 +4962,17 @@
       <c r="J146" s="2"/>
     </row>
     <row r="147" spans="1:10" ht="21">
-      <c r="A147" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B147" s="3">
-        <v>40112</v>
-      </c>
-      <c r="C147" s="3">
-        <v>37353</v>
-      </c>
-      <c r="D147" s="3">
-        <v>2759</v>
+      <c r="A147" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" s="4">
+        <v>58291</v>
+      </c>
+      <c r="C147" s="4">
+        <v>54282</v>
+      </c>
+      <c r="D147" s="4">
+        <v>4008</v>
       </c>
       <c r="E147" s="6">
         <v>2019</v>
@@ -4738,17 +4986,17 @@
       <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10" ht="21">
-      <c r="A148" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B148" s="3">
-        <v>186110</v>
-      </c>
-      <c r="C148" s="3">
-        <v>122633</v>
-      </c>
-      <c r="D148" s="3">
-        <v>63477</v>
+      <c r="A148" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" s="4">
+        <v>270771</v>
+      </c>
+      <c r="C148" s="4">
+        <v>178539</v>
+      </c>
+      <c r="D148" s="4">
+        <v>92231</v>
       </c>
       <c r="E148" s="6">
         <v>2019</v>
@@ -4762,17 +5010,17 @@
       <c r="J148" s="2"/>
     </row>
     <row r="149" spans="1:10" ht="21">
-      <c r="A149" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B149" s="3">
-        <v>9528</v>
-      </c>
-      <c r="C149" s="3">
-        <v>7156</v>
-      </c>
-      <c r="D149" s="3">
-        <v>2372</v>
+      <c r="A149" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149" s="4">
+        <v>13859</v>
+      </c>
+      <c r="C149" s="4">
+        <v>10399</v>
+      </c>
+      <c r="D149" s="4">
+        <v>3459</v>
       </c>
       <c r="E149" s="6">
         <v>2019</v>
@@ -4786,17 +5034,17 @@
       <c r="J149" s="2"/>
     </row>
     <row r="150" spans="1:10" ht="21">
-      <c r="A150" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B150" s="3">
-        <v>6372016</v>
-      </c>
-      <c r="C150" s="3">
-        <v>3119391</v>
-      </c>
-      <c r="D150" s="3">
-        <v>3252625</v>
+      <c r="A150" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" s="4">
+        <v>9257905</v>
+      </c>
+      <c r="C150" s="4">
+        <v>4533179</v>
+      </c>
+      <c r="D150" s="4">
+        <v>4724726</v>
       </c>
       <c r="E150" s="6">
         <v>2019</v>
@@ -4810,17 +5058,17 @@
       <c r="J150" s="2"/>
     </row>
     <row r="151" spans="1:10" ht="21">
-      <c r="A151" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B151" s="3">
-        <v>741826</v>
-      </c>
-      <c r="C151" s="3">
-        <v>513405</v>
-      </c>
-      <c r="D151" s="3">
-        <v>228421</v>
+      <c r="A151" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" s="4">
+        <v>1077896</v>
+      </c>
+      <c r="C151" s="4">
+        <v>746036</v>
+      </c>
+      <c r="D151" s="4">
+        <v>331860</v>
       </c>
       <c r="E151" s="6">
         <v>2019</v>
@@ -4834,17 +5082,17 @@
       <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" ht="21">
-      <c r="A152" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B152" s="3">
-        <v>229033</v>
-      </c>
-      <c r="C152" s="3">
-        <v>198784</v>
-      </c>
-      <c r="D152" s="3">
-        <v>30249</v>
+      <c r="A152" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" s="4">
+        <v>333300</v>
+      </c>
+      <c r="C152" s="4">
+        <v>289104</v>
+      </c>
+      <c r="D152" s="4">
+        <v>44196</v>
       </c>
       <c r="E152" s="6">
         <v>2019</v>
@@ -4858,17 +5106,17 @@
       <c r="J152" s="2"/>
     </row>
     <row r="153" spans="1:10" ht="21">
-      <c r="A153" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B153" s="3">
-        <v>93972</v>
-      </c>
-      <c r="C153" s="3">
-        <v>85409</v>
-      </c>
-      <c r="D153" s="3">
-        <v>8564</v>
+      <c r="A153" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" s="4">
+        <v>136655</v>
+      </c>
+      <c r="C153" s="4">
+        <v>124127</v>
+      </c>
+      <c r="D153" s="4">
+        <v>12528</v>
       </c>
       <c r="E153" s="6">
         <v>2019</v>
@@ -4882,17 +5130,17 @@
       <c r="J153" s="2"/>
     </row>
     <row r="154" spans="1:10" ht="21">
-      <c r="A154" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B154" s="3">
-        <v>1009873</v>
-      </c>
-      <c r="C154" s="3">
-        <v>722017</v>
-      </c>
-      <c r="D154" s="3">
-        <v>287856</v>
+      <c r="A154" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="4">
+        <v>1469769</v>
+      </c>
+      <c r="C154" s="4">
+        <v>1049677</v>
+      </c>
+      <c r="D154" s="4">
+        <v>420092</v>
       </c>
       <c r="E154" s="6">
         <v>2019</v>
@@ -4906,17 +5154,17 @@
       <c r="J154" s="2"/>
     </row>
     <row r="155" spans="1:10" ht="21">
-      <c r="A155" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B155" s="3">
-        <v>553035</v>
-      </c>
-      <c r="C155" s="3">
-        <v>173614</v>
-      </c>
-      <c r="D155" s="3">
-        <v>379421</v>
+      <c r="A155" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" s="4">
+        <v>803848</v>
+      </c>
+      <c r="C155" s="4">
+        <v>252545</v>
+      </c>
+      <c r="D155" s="4">
+        <v>551303</v>
       </c>
       <c r="E155" s="6">
         <v>2019</v>
@@ -4930,17 +5178,17 @@
       <c r="J155" s="2"/>
     </row>
     <row r="156" spans="1:10" ht="21">
-      <c r="A156" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B156" s="3">
-        <v>17939</v>
-      </c>
-      <c r="C156" s="3">
-        <v>6955</v>
-      </c>
-      <c r="D156" s="3">
-        <v>10984</v>
+      <c r="A156" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" s="4">
+        <v>26136</v>
+      </c>
+      <c r="C156" s="4">
+        <v>10117</v>
+      </c>
+      <c r="D156" s="4">
+        <v>16019</v>
       </c>
       <c r="E156" s="6">
         <v>2019</v>
@@ -4954,17 +5202,17 @@
       <c r="J156" s="2"/>
     </row>
     <row r="157" spans="1:10" ht="21">
-      <c r="A157" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B157" s="3">
-        <v>10754</v>
-      </c>
-      <c r="C157" s="3">
-        <v>7029</v>
-      </c>
-      <c r="D157" s="3">
-        <v>3725</v>
+      <c r="A157" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" s="4">
+        <v>15666</v>
+      </c>
+      <c r="C157" s="4">
+        <v>10224</v>
+      </c>
+      <c r="D157" s="4">
+        <v>5442</v>
       </c>
       <c r="E157" s="6">
         <v>2019</v>
@@ -4978,17 +5226,17 @@
       <c r="J157" s="2"/>
     </row>
     <row r="158" spans="1:10" ht="21">
-      <c r="A158" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B158" s="2">
+      <c r="A158" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" s="8">
         <v>0</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="8">
         <v>0</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>7</v>
+      <c r="D158" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E158" s="6">
         <v>2019</v>
@@ -5002,17 +5250,17 @@
       <c r="J158" s="2"/>
     </row>
     <row r="159" spans="1:10" ht="21">
-      <c r="A159" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B159" s="3">
-        <v>7550</v>
-      </c>
-      <c r="C159" s="2">
-        <v>247</v>
-      </c>
-      <c r="D159" s="3">
-        <v>7302</v>
+      <c r="A159" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" s="4">
+        <v>10959</v>
+      </c>
+      <c r="C159" s="8">
+        <v>359</v>
+      </c>
+      <c r="D159" s="4">
+        <v>10599</v>
       </c>
       <c r="E159" s="6">
         <v>2019</v>
@@ -5026,17 +5274,17 @@
       <c r="J159" s="2"/>
     </row>
     <row r="160" spans="1:10" ht="21">
-      <c r="A160" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B160" s="3">
-        <v>102767</v>
-      </c>
-      <c r="C160" s="3">
-        <v>63531</v>
-      </c>
-      <c r="D160" s="3">
-        <v>39236</v>
+      <c r="A160" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" s="4">
+        <v>149511</v>
+      </c>
+      <c r="C160" s="4">
+        <v>92443</v>
+      </c>
+      <c r="D160" s="4">
+        <v>57068</v>
       </c>
       <c r="E160" s="6">
         <v>2019</v>
@@ -5050,17 +5298,17 @@
       <c r="J160" s="2"/>
     </row>
     <row r="161" spans="1:10" ht="21">
-      <c r="A161" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B161" s="3">
-        <v>11236</v>
-      </c>
-      <c r="C161" s="3">
-        <v>5723</v>
-      </c>
-      <c r="D161" s="3">
-        <v>5513</v>
+      <c r="A161" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" s="4">
+        <v>16330</v>
+      </c>
+      <c r="C161" s="4">
+        <v>8327</v>
+      </c>
+      <c r="D161" s="4">
+        <v>8003</v>
       </c>
       <c r="E161" s="6">
         <v>2019</v>
@@ -5074,17 +5322,17 @@
       <c r="J161" s="2"/>
     </row>
     <row r="162" spans="1:10" ht="21">
-      <c r="A162" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B162" s="2">
-        <v>23</v>
-      </c>
-      <c r="C162" s="2">
-        <v>0</v>
-      </c>
-      <c r="D162" s="2">
-        <v>23</v>
+      <c r="A162" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="8">
+        <v>33</v>
+      </c>
+      <c r="C162" s="8">
+        <v>1</v>
+      </c>
+      <c r="D162" s="8">
+        <v>33</v>
       </c>
       <c r="E162" s="6">
         <v>2019</v>
@@ -5098,17 +5346,17 @@
       <c r="J162" s="2"/>
     </row>
     <row r="163" spans="1:10" ht="21">
-      <c r="A163" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B163" s="3">
-        <v>20014868</v>
-      </c>
-      <c r="C163" s="3">
-        <v>9789195</v>
-      </c>
-      <c r="D163" s="3">
-        <v>10225673</v>
+      <c r="A163" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" s="4">
+        <v>29083037</v>
+      </c>
+      <c r="C163" s="4">
+        <v>14228121</v>
+      </c>
+      <c r="D163" s="4">
+        <v>14854916</v>
       </c>
       <c r="E163" s="6">
         <v>2019</v>
@@ -5122,17 +5370,17 @@
       <c r="J163" s="2"/>
     </row>
     <row r="164" spans="1:10" ht="21">
-      <c r="A164" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B164" s="3">
-        <v>2929</v>
-      </c>
-      <c r="C164" s="3">
-        <v>2928</v>
-      </c>
-      <c r="D164" s="2">
-        <v>1</v>
+      <c r="A164" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" s="4">
+        <v>4267</v>
+      </c>
+      <c r="C164" s="4">
+        <v>4266</v>
+      </c>
+      <c r="D164" s="8">
+        <v>2</v>
       </c>
       <c r="E164" s="6">
         <v>2019</v>
@@ -5146,17 +5394,17 @@
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:10" ht="21">
-      <c r="A165" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B165" s="3">
-        <v>1017912</v>
-      </c>
-      <c r="C165" s="3">
-        <v>504417</v>
-      </c>
-      <c r="D165" s="3">
-        <v>513495</v>
+      <c r="A165" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" s="4">
+        <v>1478843</v>
+      </c>
+      <c r="C165" s="4">
+        <v>733194</v>
+      </c>
+      <c r="D165" s="4">
+        <v>745649</v>
       </c>
       <c r="E165" s="6">
         <v>2019</v>
@@ -5170,17 +5418,17 @@
       <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:10" ht="21">
-      <c r="A166" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B166" s="3">
-        <v>2406</v>
-      </c>
-      <c r="C166" s="3">
-        <v>2398</v>
-      </c>
-      <c r="D166" s="2">
-        <v>8</v>
+      <c r="A166" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" s="4">
+        <v>3497</v>
+      </c>
+      <c r="C166" s="4">
+        <v>3485</v>
+      </c>
+      <c r="D166" s="8">
+        <v>12</v>
       </c>
       <c r="E166" s="6">
         <v>2019</v>
@@ -5194,17 +5442,17 @@
       <c r="J166" s="2"/>
     </row>
     <row r="167" spans="1:10" ht="21">
-      <c r="A167" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B167" s="3">
-        <v>20734</v>
-      </c>
-      <c r="C167" s="3">
-        <v>16653</v>
-      </c>
-      <c r="D167" s="3">
-        <v>4081</v>
+      <c r="A167" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" s="4">
+        <v>30214</v>
+      </c>
+      <c r="C167" s="4">
+        <v>24278</v>
+      </c>
+      <c r="D167" s="4">
+        <v>5936</v>
       </c>
       <c r="E167" s="6">
         <v>2019</v>
@@ -5218,17 +5466,17 @@
       <c r="J167" s="2"/>
     </row>
     <row r="168" spans="1:10" ht="21">
-      <c r="A168" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B168" s="3">
-        <v>12541</v>
-      </c>
-      <c r="C168" s="3">
-        <v>10810</v>
-      </c>
-      <c r="D168" s="3">
-        <v>1731</v>
+      <c r="A168" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" s="4">
+        <v>18217</v>
+      </c>
+      <c r="C168" s="4">
+        <v>15704</v>
+      </c>
+      <c r="D168" s="4">
+        <v>2513</v>
       </c>
       <c r="E168" s="6">
         <v>2019</v>
@@ -5242,16 +5490,16 @@
       <c r="J168" s="2"/>
     </row>
     <row r="169" spans="1:10" ht="21">
-      <c r="A169" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B169" s="3">
-        <v>8850</v>
-      </c>
-      <c r="C169" s="3">
-        <v>8849</v>
-      </c>
-      <c r="D169" s="2">
+      <c r="A169" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" s="4">
+        <v>12864</v>
+      </c>
+      <c r="C169" s="4">
+        <v>12864</v>
+      </c>
+      <c r="D169" s="8">
         <v>1</v>
       </c>
       <c r="E169" s="6">
@@ -5266,17 +5514,17 @@
       <c r="J169" s="2"/>
     </row>
     <row r="170" spans="1:10" ht="21">
-      <c r="A170" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B170" s="3">
-        <v>80377</v>
-      </c>
-      <c r="C170" s="3">
-        <v>61364</v>
-      </c>
-      <c r="D170" s="3">
-        <v>19013</v>
+      <c r="A170" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" s="4">
+        <v>116780</v>
+      </c>
+      <c r="C170" s="4">
+        <v>89179</v>
+      </c>
+      <c r="D170" s="4">
+        <v>27601</v>
       </c>
       <c r="E170" s="6">
         <v>2019</v>
@@ -5290,16 +5538,16 @@
       <c r="J170" s="2"/>
     </row>
     <row r="171" spans="1:10" ht="21">
-      <c r="A171" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B171" s="2">
+      <c r="A171" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" s="8">
         <v>0</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="8">
         <v>0</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="8">
         <v>0</v>
       </c>
       <c r="E171" s="6">
@@ -5314,17 +5562,17 @@
       <c r="J171" s="2"/>
     </row>
     <row r="172" spans="1:10" ht="21">
-      <c r="A172" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B172" s="3">
-        <v>7482350</v>
-      </c>
-      <c r="C172" s="3">
-        <v>2301275</v>
-      </c>
-      <c r="D172" s="3">
-        <v>5181076</v>
+      <c r="A172" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172" s="4">
+        <v>10871659</v>
+      </c>
+      <c r="C172" s="4">
+        <v>3345365</v>
+      </c>
+      <c r="D172" s="4">
+        <v>7526293</v>
       </c>
       <c r="E172" s="6">
         <v>2019</v>
@@ -5338,17 +5586,17 @@
       <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10" ht="21">
-      <c r="A173" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B173" s="3">
-        <v>3376</v>
-      </c>
-      <c r="C173" s="3">
-        <v>3370</v>
-      </c>
-      <c r="D173" s="2">
-        <v>6</v>
+      <c r="A173" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" s="4">
+        <v>4917</v>
+      </c>
+      <c r="C173" s="4">
+        <v>4908</v>
+      </c>
+      <c r="D173" s="8">
+        <v>9</v>
       </c>
       <c r="E173" s="6">
         <v>2019</v>
@@ -5362,17 +5610,17 @@
       <c r="J173" s="2"/>
     </row>
     <row r="174" spans="1:10" ht="21">
-      <c r="A174" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B174" s="3">
-        <v>2222813</v>
-      </c>
-      <c r="C174" s="3">
-        <v>999289</v>
-      </c>
-      <c r="D174" s="3">
-        <v>1223524</v>
+      <c r="A174" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="4">
+        <v>3229362</v>
+      </c>
+      <c r="C174" s="4">
+        <v>1452336</v>
+      </c>
+      <c r="D174" s="4">
+        <v>1777026</v>
       </c>
       <c r="E174" s="6">
         <v>2019</v>
@@ -5386,17 +5634,17 @@
       <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10" ht="21">
-      <c r="A175" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B175" s="3">
-        <v>940186</v>
-      </c>
-      <c r="C175" s="3">
-        <v>607707</v>
-      </c>
-      <c r="D175" s="3">
-        <v>332479</v>
+      <c r="A175" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" s="4">
+        <v>1365670</v>
+      </c>
+      <c r="C175" s="4">
+        <v>883051</v>
+      </c>
+      <c r="D175" s="4">
+        <v>482618</v>
       </c>
       <c r="E175" s="6">
         <v>2019</v>
@@ -5410,17 +5658,17 @@
       <c r="J175" s="2"/>
     </row>
     <row r="176" spans="1:10" ht="21">
-      <c r="A176" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B176" s="3">
-        <v>1691</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1672</v>
-      </c>
-      <c r="D176" s="2">
-        <v>19</v>
+      <c r="A176" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176" s="4">
+        <v>2456</v>
+      </c>
+      <c r="C176" s="4">
+        <v>2428</v>
+      </c>
+      <c r="D176" s="8">
+        <v>28</v>
       </c>
       <c r="E176" s="6">
         <v>2019</v>
@@ -5434,17 +5682,17 @@
       <c r="J176" s="2"/>
     </row>
     <row r="177" spans="1:10" ht="21">
-      <c r="A177" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B177" s="3">
-        <v>137363</v>
-      </c>
-      <c r="C177" s="3">
-        <v>95015</v>
-      </c>
-      <c r="D177" s="3">
-        <v>42348</v>
+      <c r="A177" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177" s="4">
+        <v>199614</v>
+      </c>
+      <c r="C177" s="4">
+        <v>138078</v>
+      </c>
+      <c r="D177" s="4">
+        <v>61536</v>
       </c>
       <c r="E177" s="6">
         <v>2019</v>
@@ -5458,17 +5706,17 @@
       <c r="J177" s="2"/>
     </row>
     <row r="178" spans="1:10" ht="21">
-      <c r="A178" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B178" s="3">
-        <v>68865</v>
-      </c>
-      <c r="C178" s="3">
-        <v>38123</v>
-      </c>
-      <c r="D178" s="3">
-        <v>30742</v>
+      <c r="A178" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" s="4">
+        <v>100610</v>
+      </c>
+      <c r="C178" s="4">
+        <v>55557</v>
+      </c>
+      <c r="D178" s="4">
+        <v>45052</v>
       </c>
       <c r="E178" s="6">
         <v>2019</v>
@@ -5482,16 +5730,16 @@
       <c r="J178" s="2"/>
     </row>
     <row r="179" spans="1:10" ht="21">
-      <c r="A179" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B179" s="3">
-        <v>2963</v>
-      </c>
-      <c r="C179" s="3">
-        <v>2962</v>
-      </c>
-      <c r="D179" s="2">
+      <c r="A179" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179" s="4">
+        <v>4303</v>
+      </c>
+      <c r="C179" s="4">
+        <v>4302</v>
+      </c>
+      <c r="D179" s="8">
         <v>1</v>
       </c>
       <c r="E179" s="6">
@@ -5506,17 +5754,17 @@
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10" ht="21">
-      <c r="A180" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B180" s="3">
-        <v>176100</v>
-      </c>
-      <c r="C180" s="3">
-        <v>156146</v>
-      </c>
-      <c r="D180" s="3">
-        <v>19954</v>
+      <c r="A180" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180" s="4">
+        <v>255854</v>
+      </c>
+      <c r="C180" s="4">
+        <v>226863</v>
+      </c>
+      <c r="D180" s="4">
+        <v>28991</v>
       </c>
       <c r="E180" s="6">
         <v>2019</v>
@@ -5530,17 +5778,17 @@
       <c r="J180" s="2"/>
     </row>
     <row r="181" spans="1:10" ht="21">
-      <c r="A181" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B181" s="3">
-        <v>488191</v>
-      </c>
-      <c r="C181" s="3">
-        <v>243568</v>
-      </c>
-      <c r="D181" s="3">
-        <v>244624</v>
+      <c r="A181" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181" s="4">
+        <v>709138</v>
+      </c>
+      <c r="C181" s="4">
+        <v>353901</v>
+      </c>
+      <c r="D181" s="4">
+        <v>355237</v>
       </c>
       <c r="E181" s="6">
         <v>2019</v>
@@ -5554,16 +5802,16 @@
       <c r="J181" s="2"/>
     </row>
     <row r="182" spans="1:10" ht="21">
-      <c r="A182" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B182" s="2">
-        <v>704</v>
-      </c>
-      <c r="C182" s="2">
-        <v>703</v>
-      </c>
-      <c r="D182" s="2">
+      <c r="A182" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C182" s="4">
+        <v>1022</v>
+      </c>
+      <c r="D182" s="8">
         <v>2</v>
       </c>
       <c r="E182" s="6">
@@ -5578,16 +5826,16 @@
       <c r="J182" s="2"/>
     </row>
     <row r="183" spans="1:10" ht="21">
-      <c r="A183" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B183" s="2">
-        <v>984</v>
-      </c>
-      <c r="C183" s="2">
-        <v>984</v>
-      </c>
-      <c r="D183" s="2">
+      <c r="A183" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" s="4">
+        <v>1430</v>
+      </c>
+      <c r="C183" s="4">
+        <v>1429</v>
+      </c>
+      <c r="D183" s="8">
         <v>0</v>
       </c>
       <c r="E183" s="6">
@@ -5602,17 +5850,17 @@
       <c r="J183" s="2"/>
     </row>
     <row r="184" spans="1:10" ht="21">
-      <c r="A184" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B184" s="3">
-        <v>2555</v>
-      </c>
-      <c r="C184" s="3">
-        <v>2553</v>
-      </c>
-      <c r="D184" s="2">
-        <v>2</v>
+      <c r="A184" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" s="4">
+        <v>3716</v>
+      </c>
+      <c r="C184" s="4">
+        <v>3713</v>
+      </c>
+      <c r="D184" s="8">
+        <v>3</v>
       </c>
       <c r="E184" s="6">
         <v>2019</v>
@@ -5626,17 +5874,17 @@
       <c r="J184" s="2"/>
     </row>
     <row r="185" spans="1:10" ht="21">
-      <c r="A185" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B185" s="3">
-        <v>169969</v>
-      </c>
-      <c r="C185" s="3">
-        <v>149656</v>
-      </c>
-      <c r="D185" s="3">
-        <v>20312</v>
+      <c r="A185" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" s="4">
+        <v>246902</v>
+      </c>
+      <c r="C185" s="4">
+        <v>217417</v>
+      </c>
+      <c r="D185" s="4">
+        <v>29485</v>
       </c>
       <c r="E185" s="6">
         <v>2019</v>
@@ -5650,17 +5898,17 @@
       <c r="J185" s="2"/>
     </row>
     <row r="186" spans="1:10" ht="21">
-      <c r="A186" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B186" s="3">
-        <v>20351</v>
-      </c>
-      <c r="C186" s="3">
-        <v>18303</v>
-      </c>
-      <c r="D186" s="3">
-        <v>2048</v>
+      <c r="A186" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186" s="4">
+        <v>29571</v>
+      </c>
+      <c r="C186" s="4">
+        <v>26596</v>
+      </c>
+      <c r="D186" s="4">
+        <v>2975</v>
       </c>
       <c r="E186" s="6">
         <v>2019</v>
@@ -5674,17 +5922,17 @@
       <c r="J186" s="2"/>
     </row>
     <row r="187" spans="1:10" ht="21">
-      <c r="A187" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B187" s="3">
-        <v>36548</v>
-      </c>
-      <c r="C187" s="3">
-        <v>36243</v>
-      </c>
-      <c r="D187" s="2">
-        <v>304</v>
+      <c r="A187" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187" s="4">
+        <v>53106</v>
+      </c>
+      <c r="C187" s="4">
+        <v>52664</v>
+      </c>
+      <c r="D187" s="8">
+        <v>442</v>
       </c>
       <c r="E187" s="6">
         <v>2019</v>
@@ -5698,17 +5946,17 @@
       <c r="J187" s="2"/>
     </row>
     <row r="188" spans="1:10" ht="21">
-      <c r="A188" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B188" s="3">
-        <v>57303</v>
-      </c>
-      <c r="C188" s="3">
-        <v>56135</v>
-      </c>
-      <c r="D188" s="3">
-        <v>1168</v>
+      <c r="A188" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188" s="4">
+        <v>83260</v>
+      </c>
+      <c r="C188" s="4">
+        <v>81563</v>
+      </c>
+      <c r="D188" s="4">
+        <v>1696</v>
       </c>
       <c r="E188" s="6">
         <v>2019</v>
@@ -5722,17 +5970,17 @@
       <c r="J188" s="2"/>
     </row>
     <row r="189" spans="1:10" ht="21">
-      <c r="A189" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B189" s="3">
-        <v>45691</v>
-      </c>
-      <c r="C189" s="3">
-        <v>44606</v>
-      </c>
-      <c r="D189" s="3">
-        <v>1085</v>
+      <c r="A189" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" s="4">
+        <v>66385</v>
+      </c>
+      <c r="C189" s="4">
+        <v>64811</v>
+      </c>
+      <c r="D189" s="4">
+        <v>1575</v>
       </c>
       <c r="E189" s="6">
         <v>2019</v>
@@ -5746,17 +5994,17 @@
       <c r="J189" s="2"/>
     </row>
     <row r="190" spans="1:10" ht="21">
-      <c r="A190" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B190" s="3">
-        <v>1323</v>
-      </c>
-      <c r="C190" s="3">
-        <v>1318</v>
-      </c>
-      <c r="D190" s="2">
-        <v>5</v>
+      <c r="A190" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" s="4">
+        <v>1922</v>
+      </c>
+      <c r="C190" s="4">
+        <v>1915</v>
+      </c>
+      <c r="D190" s="8">
+        <v>7</v>
       </c>
       <c r="E190" s="6">
         <v>2019</v>
@@ -5770,17 +6018,17 @@
       <c r="J190" s="2"/>
     </row>
     <row r="191" spans="1:10" ht="21">
-      <c r="A191" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B191" s="3">
-        <v>3803812</v>
-      </c>
-      <c r="C191" s="3">
-        <v>2892991</v>
-      </c>
-      <c r="D191" s="3">
-        <v>910821</v>
+      <c r="A191" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191" s="4">
+        <v>5527955</v>
+      </c>
+      <c r="C191" s="4">
+        <v>4203889</v>
+      </c>
+      <c r="D191" s="4">
+        <v>1324065</v>
       </c>
       <c r="E191" s="6">
         <v>2019</v>
@@ -5794,16 +6042,16 @@
       <c r="J191" s="2"/>
     </row>
     <row r="192" spans="1:10" ht="21">
-      <c r="A192" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B192" s="2">
+      <c r="A192" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192" s="8">
         <v>0</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="8">
         <v>0</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192" s="8">
         <v>0</v>
       </c>
       <c r="E192" s="6">
@@ -5818,17 +6066,17 @@
       <c r="J192" s="2"/>
     </row>
     <row r="193" spans="1:10" ht="21">
-      <c r="A193" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B193" s="3">
-        <v>36527</v>
-      </c>
-      <c r="C193" s="3">
-        <v>35440</v>
-      </c>
-      <c r="D193" s="3">
-        <v>1087</v>
+      <c r="A193" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193" s="4">
+        <v>53105</v>
+      </c>
+      <c r="C193" s="4">
+        <v>51526</v>
+      </c>
+      <c r="D193" s="4">
+        <v>1579</v>
       </c>
       <c r="E193" s="6">
         <v>2019</v>
@@ -5842,17 +6090,17 @@
       <c r="J193" s="2"/>
     </row>
     <row r="194" spans="1:10" ht="21">
-      <c r="A194" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B194" s="3">
-        <v>484885</v>
-      </c>
-      <c r="C194" s="3">
-        <v>479444</v>
-      </c>
-      <c r="D194" s="3">
-        <v>5441</v>
+      <c r="A194" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194" s="4">
+        <v>705531</v>
+      </c>
+      <c r="C194" s="4">
+        <v>697632</v>
+      </c>
+      <c r="D194" s="4">
+        <v>7899</v>
       </c>
       <c r="E194" s="6">
         <v>2019</v>
@@ -5866,17 +6114,17 @@
       <c r="J194" s="2"/>
     </row>
     <row r="195" spans="1:10" ht="21">
-      <c r="A195" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B195" s="3">
-        <v>108546</v>
-      </c>
-      <c r="C195" s="3">
-        <v>108289</v>
-      </c>
-      <c r="D195" s="2">
-        <v>258</v>
+      <c r="A195" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B195" s="4">
+        <v>157726</v>
+      </c>
+      <c r="C195" s="4">
+        <v>157351</v>
+      </c>
+      <c r="D195" s="8">
+        <v>374</v>
       </c>
       <c r="E195" s="6">
         <v>2019</v>
@@ -5890,17 +6138,17 @@
       <c r="J195" s="2"/>
     </row>
     <row r="196" spans="1:10" ht="21">
-      <c r="A196" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B196" s="3">
-        <v>1674009</v>
-      </c>
-      <c r="C196" s="3">
-        <v>494992</v>
-      </c>
-      <c r="D196" s="3">
-        <v>1179018</v>
+      <c r="A196" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" s="4">
+        <v>2432080</v>
+      </c>
+      <c r="C196" s="4">
+        <v>719193</v>
+      </c>
+      <c r="D196" s="4">
+        <v>1712887</v>
       </c>
       <c r="E196" s="6">
         <v>2019</v>
@@ -5914,17 +6162,17 @@
       <c r="J196" s="2"/>
     </row>
     <row r="197" spans="1:10" ht="21">
-      <c r="A197" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B197" s="3">
-        <v>94075</v>
-      </c>
-      <c r="C197" s="3">
-        <v>41353</v>
-      </c>
-      <c r="D197" s="3">
-        <v>52722</v>
+      <c r="A197" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B197" s="4">
+        <v>136720</v>
+      </c>
+      <c r="C197" s="4">
+        <v>60077</v>
+      </c>
+      <c r="D197" s="4">
+        <v>76643</v>
       </c>
       <c r="E197" s="6">
         <v>2019</v>
@@ -5938,17 +6186,17 @@
       <c r="J197" s="2"/>
     </row>
     <row r="198" spans="1:10" ht="21">
-      <c r="A198" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B198" s="2">
+      <c r="A198" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198" s="8">
         <v>2</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198" s="8">
         <v>2</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>7</v>
+      <c r="D198" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E198" s="6">
         <v>2019</v>
@@ -5962,17 +6210,17 @@
       <c r="J198" s="2"/>
     </row>
     <row r="199" spans="1:10" ht="21">
-      <c r="A199" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B199" s="3">
-        <v>2757</v>
-      </c>
-      <c r="C199" s="3">
-        <v>2717</v>
-      </c>
-      <c r="D199" s="2">
-        <v>40</v>
+      <c r="A199" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" s="4">
+        <v>4007</v>
+      </c>
+      <c r="C199" s="4">
+        <v>3949</v>
+      </c>
+      <c r="D199" s="8">
+        <v>58</v>
       </c>
       <c r="E199" s="6">
         <v>2019</v>
@@ -5986,16 +6234,16 @@
       <c r="J199" s="2"/>
     </row>
     <row r="200" spans="1:10" ht="21">
-      <c r="A200" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B200" s="2">
-        <v>239</v>
-      </c>
-      <c r="C200" s="2">
-        <v>239</v>
-      </c>
-      <c r="D200" s="2">
+      <c r="A200" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" s="8">
+        <v>348</v>
+      </c>
+      <c r="C200" s="8">
+        <v>348</v>
+      </c>
+      <c r="D200" s="8">
         <v>0</v>
       </c>
       <c r="E200" s="6">
@@ -6010,16 +6258,16 @@
       <c r="J200" s="2"/>
     </row>
     <row r="201" spans="1:10" ht="21">
-      <c r="A201" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B201" s="2">
-        <v>815</v>
-      </c>
-      <c r="C201" s="2">
-        <v>815</v>
-      </c>
-      <c r="D201" s="2">
+      <c r="A201" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201" s="4">
+        <v>1184</v>
+      </c>
+      <c r="C201" s="4">
+        <v>1184</v>
+      </c>
+      <c r="D201" s="8">
         <v>0</v>
       </c>
       <c r="E201" s="6">
@@ -6034,17 +6282,17 @@
       <c r="J201" s="2"/>
     </row>
     <row r="202" spans="1:10" ht="21">
-      <c r="A202" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B202" s="3">
-        <v>76749</v>
-      </c>
-      <c r="C202" s="3">
-        <v>70855</v>
-      </c>
-      <c r="D202" s="3">
-        <v>5894</v>
+      <c r="A202" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202" s="4">
+        <v>111542</v>
+      </c>
+      <c r="C202" s="4">
+        <v>102982</v>
+      </c>
+      <c r="D202" s="4">
+        <v>8560</v>
       </c>
       <c r="E202" s="6">
         <v>2019</v>
@@ -6058,17 +6306,17 @@
       <c r="J202" s="2"/>
     </row>
     <row r="203" spans="1:10" ht="21">
-      <c r="A203" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B203" s="3">
-        <v>17838</v>
-      </c>
-      <c r="C203" s="3">
-        <v>16173</v>
-      </c>
-      <c r="D203" s="3">
-        <v>1665</v>
+      <c r="A203" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203" s="4">
+        <v>25920</v>
+      </c>
+      <c r="C203" s="4">
+        <v>23503</v>
+      </c>
+      <c r="D203" s="4">
+        <v>2417</v>
       </c>
       <c r="E203" s="6">
         <v>2019</v>
@@ -6082,17 +6330,17 @@
       <c r="J203" s="2"/>
     </row>
     <row r="204" spans="1:10" ht="21">
-      <c r="A204" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B204" s="3">
-        <v>50239</v>
-      </c>
-      <c r="C204" s="3">
-        <v>26285</v>
-      </c>
-      <c r="D204" s="3">
-        <v>23954</v>
+      <c r="A204" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204" s="4">
+        <v>72969</v>
+      </c>
+      <c r="C204" s="4">
+        <v>38187</v>
+      </c>
+      <c r="D204" s="4">
+        <v>34781</v>
       </c>
       <c r="E204" s="6">
         <v>2019</v>
@@ -6106,16 +6354,16 @@
       <c r="J204" s="2"/>
     </row>
     <row r="205" spans="1:10" ht="21">
-      <c r="A205" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B205" s="2">
-        <v>145</v>
-      </c>
-      <c r="C205" s="2">
-        <v>145</v>
-      </c>
-      <c r="D205" s="2">
+      <c r="A205" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205" s="8">
+        <v>210</v>
+      </c>
+      <c r="C205" s="8">
+        <v>210</v>
+      </c>
+      <c r="D205" s="8">
         <v>0</v>
       </c>
       <c r="E205" s="6">
@@ -6130,17 +6378,17 @@
       <c r="J205" s="2"/>
     </row>
     <row r="206" spans="1:10" ht="21">
-      <c r="A206" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B206" s="3">
-        <v>337345</v>
-      </c>
-      <c r="C206" s="3">
-        <v>144657</v>
-      </c>
-      <c r="D206" s="3">
-        <v>192688</v>
+      <c r="A206" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206" s="4">
+        <v>490393</v>
+      </c>
+      <c r="C206" s="4">
+        <v>210584</v>
+      </c>
+      <c r="D206" s="4">
+        <v>279809</v>
       </c>
       <c r="E206" s="6">
         <v>2019</v>
@@ -6154,17 +6402,17 @@
       <c r="J206" s="2"/>
     </row>
     <row r="207" spans="1:10" ht="21">
-      <c r="A207" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B207" s="3">
-        <v>319799</v>
-      </c>
-      <c r="C207" s="3">
-        <v>105759</v>
-      </c>
-      <c r="D207" s="3">
-        <v>214040</v>
+      <c r="A207" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207" s="4">
+        <v>464844</v>
+      </c>
+      <c r="C207" s="4">
+        <v>153716</v>
+      </c>
+      <c r="D207" s="4">
+        <v>311128</v>
       </c>
       <c r="E207" s="6">
         <v>2019</v>
@@ -6178,17 +6426,17 @@
       <c r="J207" s="2"/>
     </row>
     <row r="208" spans="1:10" ht="21">
-      <c r="A208" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B208" s="2">
-        <v>317</v>
-      </c>
-      <c r="C208" s="2">
-        <v>315</v>
-      </c>
-      <c r="D208" s="2">
-        <v>2</v>
+      <c r="A208" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B208" s="8">
+        <v>461</v>
+      </c>
+      <c r="C208" s="8">
+        <v>458</v>
+      </c>
+      <c r="D208" s="8">
+        <v>3</v>
       </c>
       <c r="E208" s="6">
         <v>2019</v>
@@ -6202,17 +6450,17 @@
       <c r="J208" s="2"/>
     </row>
     <row r="209" spans="1:10" ht="21">
-      <c r="A209" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B209" s="2">
-        <v>614</v>
-      </c>
-      <c r="C209" s="2">
-        <v>604</v>
-      </c>
-      <c r="D209" s="2">
-        <v>11</v>
+      <c r="A209" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" s="8">
+        <v>892</v>
+      </c>
+      <c r="C209" s="8">
+        <v>877</v>
+      </c>
+      <c r="D209" s="8">
+        <v>15</v>
       </c>
       <c r="E209" s="6">
         <v>2019</v>
@@ -6226,17 +6474,17 @@
       <c r="J209" s="2"/>
     </row>
     <row r="210" spans="1:10" ht="21">
-      <c r="A210" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B210" s="2">
+      <c r="A210" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210" s="8">
+        <v>4</v>
+      </c>
+      <c r="C210" s="8">
+        <v>4</v>
+      </c>
+      <c r="D210" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="C210" s="2">
-        <v>3</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E210" s="6">
         <v>2019</v>
@@ -6250,17 +6498,17 @@
       <c r="J210" s="2"/>
     </row>
     <row r="211" spans="1:10" ht="21">
-      <c r="A211" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B211" s="2">
-        <v>944</v>
-      </c>
-      <c r="C211" s="2">
-        <v>940</v>
-      </c>
-      <c r="D211" s="2">
-        <v>4</v>
+      <c r="A211" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" s="4">
+        <v>1372</v>
+      </c>
+      <c r="C211" s="4">
+        <v>1367</v>
+      </c>
+      <c r="D211" s="8">
+        <v>6</v>
       </c>
       <c r="E211" s="6">
         <v>2019</v>
@@ -6274,16 +6522,16 @@
       <c r="J211" s="2"/>
     </row>
     <row r="212" spans="1:10" ht="21">
-      <c r="A212" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B212" s="2">
-        <v>132</v>
-      </c>
-      <c r="C212" s="2">
-        <v>132</v>
-      </c>
-      <c r="D212" s="2">
+      <c r="A212" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212" s="8">
+        <v>192</v>
+      </c>
+      <c r="C212" s="8">
+        <v>192</v>
+      </c>
+      <c r="D212" s="8">
         <v>0</v>
       </c>
       <c r="E212" s="6">
@@ -6298,17 +6546,17 @@
       <c r="J212" s="2"/>
     </row>
     <row r="213" spans="1:10" ht="21">
-      <c r="A213" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B213" s="3">
-        <v>38035031</v>
-      </c>
-      <c r="C213" s="3">
-        <v>29113683</v>
-      </c>
-      <c r="D213" s="3">
-        <v>8921347</v>
+      <c r="A213" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213" s="4">
+        <v>55262306</v>
+      </c>
+      <c r="C213" s="4">
+        <v>42299572</v>
+      </c>
+      <c r="D213" s="4">
+        <v>12962734</v>
       </c>
       <c r="E213" s="6">
         <v>2019</v>
@@ -6322,17 +6570,17 @@
       <c r="J213" s="2"/>
     </row>
     <row r="214" spans="1:10" ht="21">
-      <c r="A214" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B214" s="3">
-        <v>3787255</v>
-      </c>
-      <c r="C214" s="3">
-        <v>2368839</v>
-      </c>
-      <c r="D214" s="3">
-        <v>1418416</v>
+      <c r="A214" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" s="4">
+        <v>5505716</v>
+      </c>
+      <c r="C214" s="4">
+        <v>3442524</v>
+      </c>
+      <c r="D214" s="4">
+        <v>2063192</v>
       </c>
       <c r="E214" s="6">
         <v>2019</v>
@@ -6346,17 +6594,17 @@
       <c r="J214" s="2"/>
     </row>
     <row r="215" spans="1:10" ht="21">
-      <c r="A215" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B215" s="3">
-        <v>34233300</v>
-      </c>
-      <c r="C215" s="3">
-        <v>26743327</v>
-      </c>
-      <c r="D215" s="3">
-        <v>7489973</v>
+      <c r="A215" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B215" s="4">
+        <v>49735550</v>
+      </c>
+      <c r="C215" s="4">
+        <v>38854843</v>
+      </c>
+      <c r="D215" s="4">
+        <v>10880708</v>
       </c>
       <c r="E215" s="6">
         <v>2019</v>
@@ -6370,17 +6618,17 @@
       <c r="J215" s="2"/>
     </row>
     <row r="216" spans="1:10" ht="21">
-      <c r="A216" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B216" s="3">
-        <v>13068</v>
-      </c>
-      <c r="C216" s="2">
-        <v>110</v>
-      </c>
-      <c r="D216" s="3">
-        <v>12958</v>
+      <c r="A216" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216" s="4">
+        <v>18993</v>
+      </c>
+      <c r="C216" s="8">
+        <v>160</v>
+      </c>
+      <c r="D216" s="4">
+        <v>18834</v>
       </c>
       <c r="E216" s="6">
         <v>2019</v>
@@ -6394,16 +6642,16 @@
       <c r="J216" s="2"/>
     </row>
     <row r="217" spans="1:10" ht="21">
-      <c r="A217" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B217" s="3">
-        <v>1383</v>
-      </c>
-      <c r="C217" s="3">
-        <v>1383</v>
-      </c>
-      <c r="D217" s="2">
+      <c r="A217" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217" s="4">
+        <v>2010</v>
+      </c>
+      <c r="C217" s="4">
+        <v>2010</v>
+      </c>
+      <c r="D217" s="8">
         <v>0</v>
       </c>
       <c r="E217" s="6">
@@ -6418,17 +6666,17 @@
       <c r="J217" s="2"/>
     </row>
     <row r="218" spans="1:10" ht="21">
-      <c r="A218" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B218" s="2">
-        <v>25</v>
-      </c>
-      <c r="C218" s="2">
-        <v>25</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>7</v>
+      <c r="A218" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" s="8">
+        <v>37</v>
+      </c>
+      <c r="C218" s="8">
+        <v>37</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E218" s="6">
         <v>2019</v>
@@ -6442,17 +6690,17 @@
       <c r="J218" s="2"/>
     </row>
     <row r="219" spans="1:10" ht="21">
-      <c r="A219" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B219" s="3">
-        <v>12373528</v>
-      </c>
-      <c r="C219" s="3">
-        <v>3395385</v>
-      </c>
-      <c r="D219" s="3">
-        <v>8978143</v>
+      <c r="A219" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219" s="4">
+        <v>18000642</v>
+      </c>
+      <c r="C219" s="4">
+        <v>4935819</v>
+      </c>
+      <c r="D219" s="4">
+        <v>13064823</v>
       </c>
       <c r="E219" s="6">
         <v>2019</v>
@@ -6466,17 +6714,17 @@
       <c r="J219" s="2"/>
     </row>
     <row r="220" spans="1:10" ht="21">
-      <c r="A220" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B220" s="3">
-        <v>10786719</v>
-      </c>
-      <c r="C220" s="3">
-        <v>2805144</v>
-      </c>
-      <c r="D220" s="3">
-        <v>7981575</v>
+      <c r="A220" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220" s="4">
+        <v>15694007</v>
+      </c>
+      <c r="C220" s="4">
+        <v>4077806</v>
+      </c>
+      <c r="D220" s="4">
+        <v>11616201</v>
       </c>
       <c r="E220" s="6">
         <v>2019</v>
@@ -6490,17 +6738,17 @@
       <c r="J220" s="2"/>
     </row>
     <row r="221" spans="1:10" ht="21">
-      <c r="A221" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B221" s="2">
-        <v>460</v>
-      </c>
-      <c r="C221" s="2">
-        <v>118</v>
-      </c>
-      <c r="D221" s="2">
-        <v>342</v>
+      <c r="A221" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221" s="8">
+        <v>668</v>
+      </c>
+      <c r="C221" s="8">
+        <v>172</v>
+      </c>
+      <c r="D221" s="8">
+        <v>496</v>
       </c>
       <c r="E221" s="6">
         <v>2019</v>
@@ -6514,17 +6762,17 @@
       <c r="J221" s="2"/>
     </row>
     <row r="222" spans="1:10" ht="21">
-      <c r="A222" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B222" s="3">
-        <v>23815</v>
-      </c>
-      <c r="C222" s="3">
-        <v>23233</v>
-      </c>
-      <c r="D222" s="2">
-        <v>582</v>
+      <c r="A222" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222" s="4">
+        <v>34592</v>
+      </c>
+      <c r="C222" s="4">
+        <v>33747</v>
+      </c>
+      <c r="D222" s="8">
+        <v>846</v>
       </c>
       <c r="E222" s="6">
         <v>2019</v>
@@ -6538,17 +6786,17 @@
       <c r="J222" s="2"/>
     </row>
     <row r="223" spans="1:10" ht="21">
-      <c r="A223" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>7</v>
+      <c r="A223" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E223" s="6">
         <v>2019</v>
@@ -6562,17 +6810,17 @@
       <c r="J223" s="2"/>
     </row>
     <row r="224" spans="1:10" ht="21">
-      <c r="A224" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>7</v>
+      <c r="A224" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E224" s="6">
         <v>2019</v>
@@ -6586,17 +6834,17 @@
       <c r="J224" s="2"/>
     </row>
     <row r="225" spans="1:10" ht="21">
-      <c r="A225" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B225" s="2">
-        <v>120</v>
-      </c>
-      <c r="C225" s="2">
-        <v>120</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>7</v>
+      <c r="A225" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225" s="8">
+        <v>179</v>
+      </c>
+      <c r="C225" s="8">
+        <v>179</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E225" s="6">
         <v>2019</v>
@@ -6610,17 +6858,17 @@
       <c r="J225" s="2"/>
     </row>
     <row r="226" spans="1:10" ht="21">
-      <c r="A226" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B226" s="3">
-        <v>55041</v>
-      </c>
-      <c r="C226" s="3">
-        <v>7781</v>
-      </c>
-      <c r="D226" s="3">
-        <v>47261</v>
+      <c r="A226" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226" s="4">
+        <v>79943</v>
+      </c>
+      <c r="C226" s="4">
+        <v>11301</v>
+      </c>
+      <c r="D226" s="4">
+        <v>68642</v>
       </c>
       <c r="E226" s="6">
         <v>2019</v>
@@ -6634,17 +6882,17 @@
       <c r="J226" s="2"/>
     </row>
     <row r="227" spans="1:10" ht="21">
-      <c r="A227" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B227" s="3">
-        <v>8064</v>
-      </c>
-      <c r="C227" s="3">
-        <v>3524</v>
-      </c>
-      <c r="D227" s="3">
-        <v>4540</v>
+      <c r="A227" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B227" s="4">
+        <v>11710</v>
+      </c>
+      <c r="C227" s="4">
+        <v>5120</v>
+      </c>
+      <c r="D227" s="4">
+        <v>6591</v>
       </c>
       <c r="E227" s="6">
         <v>2019</v>
@@ -6658,17 +6906,17 @@
       <c r="J227" s="2"/>
     </row>
     <row r="228" spans="1:10" ht="21">
-      <c r="A228" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B228" s="3">
-        <v>1074438</v>
-      </c>
-      <c r="C228" s="3">
-        <v>325739</v>
-      </c>
-      <c r="D228" s="3">
-        <v>748699</v>
+      <c r="A228" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228" s="4">
+        <v>1562015</v>
+      </c>
+      <c r="C228" s="4">
+        <v>473336</v>
+      </c>
+      <c r="D228" s="4">
+        <v>1088679</v>
       </c>
       <c r="E228" s="6">
         <v>2019</v>
@@ -6682,17 +6930,17 @@
       <c r="J228" s="2"/>
     </row>
     <row r="229" spans="1:10" ht="21">
-      <c r="A229" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B229" s="2">
-        <v>17</v>
-      </c>
-      <c r="C229" s="2">
-        <v>17</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>7</v>
+      <c r="A229" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B229" s="8">
+        <v>25</v>
+      </c>
+      <c r="C229" s="8">
+        <v>25</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E229" s="6">
         <v>2019</v>
@@ -6706,17 +6954,17 @@
       <c r="J229" s="2"/>
     </row>
     <row r="230" spans="1:10" ht="21">
-      <c r="A230" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B230" s="3">
-        <v>209469</v>
-      </c>
-      <c r="C230" s="3">
-        <v>49615</v>
-      </c>
-      <c r="D230" s="3">
-        <v>159854</v>
+      <c r="A230" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B230" s="4">
+        <v>304223</v>
+      </c>
+      <c r="C230" s="4">
+        <v>72124</v>
+      </c>
+      <c r="D230" s="4">
+        <v>232099</v>
       </c>
       <c r="E230" s="6">
         <v>2019</v>
@@ -6730,17 +6978,17 @@
       <c r="J230" s="2"/>
     </row>
     <row r="231" spans="1:10" ht="21">
-      <c r="A231" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B231" s="2">
-        <v>104</v>
-      </c>
-      <c r="C231" s="2">
-        <v>104</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>7</v>
+      <c r="A231" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B231" s="8">
+        <v>151</v>
+      </c>
+      <c r="C231" s="8">
+        <v>151</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E231" s="6">
         <v>2019</v>
@@ -6754,17 +7002,17 @@
       <c r="J231" s="2"/>
     </row>
     <row r="232" spans="1:10" ht="21">
-      <c r="A232" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B232" s="3">
-        <v>31483</v>
-      </c>
-      <c r="C232" s="3">
-        <v>4714</v>
-      </c>
-      <c r="D232" s="3">
-        <v>26769</v>
+      <c r="A232" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B232" s="4">
+        <v>45753</v>
+      </c>
+      <c r="C232" s="4">
+        <v>6852</v>
+      </c>
+      <c r="D232" s="4">
+        <v>38901</v>
       </c>
       <c r="E232" s="6">
         <v>2019</v>
@@ -6778,16 +7026,16 @@
       <c r="J232" s="2"/>
     </row>
     <row r="233" spans="1:10" ht="21">
-      <c r="A233" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B233" s="3">
-        <v>2311</v>
-      </c>
-      <c r="C233" s="3">
-        <v>2311</v>
-      </c>
-      <c r="D233" s="2">
+      <c r="A233" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233" s="4">
+        <v>3357</v>
+      </c>
+      <c r="C233" s="4">
+        <v>3357</v>
+      </c>
+      <c r="D233" s="8">
         <v>0</v>
       </c>
       <c r="E233" s="6">
@@ -6802,17 +7050,17 @@
       <c r="J233" s="2"/>
     </row>
     <row r="234" spans="1:10" ht="21">
-      <c r="A234" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>7</v>
+      <c r="A234" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E234" s="6">
         <v>2019</v>
@@ -6826,17 +7074,17 @@
       <c r="J234" s="2"/>
     </row>
     <row r="235" spans="1:10" ht="21">
-      <c r="A235" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>7</v>
+      <c r="A235" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E235" s="6">
         <v>2019</v>
@@ -6850,17 +7098,17 @@
       <c r="J235" s="2"/>
     </row>
     <row r="236" spans="1:10" ht="21">
-      <c r="A236" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B236" s="3">
-        <v>6676</v>
-      </c>
-      <c r="C236" s="3">
-        <v>6666</v>
-      </c>
-      <c r="D236" s="2">
-        <v>10</v>
+      <c r="A236" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236" s="4">
+        <v>9731</v>
+      </c>
+      <c r="C236" s="4">
+        <v>9717</v>
+      </c>
+      <c r="D236" s="8">
+        <v>14</v>
       </c>
       <c r="E236" s="6">
         <v>2019</v>
@@ -6874,17 +7122,17 @@
       <c r="J236" s="2"/>
     </row>
     <row r="237" spans="1:10" ht="21">
-      <c r="A237" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B237" s="2">
-        <v>971</v>
-      </c>
-      <c r="C237" s="2">
-        <v>971</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>7</v>
+      <c r="A237" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237" s="4">
+        <v>1411</v>
+      </c>
+      <c r="C237" s="4">
+        <v>1411</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E237" s="6">
         <v>2019</v>
@@ -6898,17 +7146,17 @@
       <c r="J237" s="2"/>
     </row>
     <row r="238" spans="1:10" ht="21">
-      <c r="A238" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B238" s="2">
-        <v>753</v>
-      </c>
-      <c r="C238" s="2">
-        <v>753</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>7</v>
+      <c r="A238" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238" s="4">
+        <v>1095</v>
+      </c>
+      <c r="C238" s="4">
+        <v>1095</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E238" s="6">
         <v>2019</v>
@@ -6922,17 +7170,17 @@
       <c r="J238" s="2"/>
     </row>
     <row r="239" spans="1:10" ht="21">
-      <c r="A239" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B239" s="3">
-        <v>1154</v>
-      </c>
-      <c r="C239" s="2">
-        <v>976</v>
-      </c>
-      <c r="D239" s="2">
-        <v>179</v>
+      <c r="A239" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B239" s="4">
+        <v>1677</v>
+      </c>
+      <c r="C239" s="4">
+        <v>1418</v>
+      </c>
+      <c r="D239" s="8">
+        <v>259</v>
       </c>
       <c r="E239" s="6">
         <v>2019</v>
@@ -6946,17 +7194,17 @@
       <c r="J239" s="2"/>
     </row>
     <row r="240" spans="1:10" ht="21">
-      <c r="A240" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B240" s="3">
-        <v>160128</v>
-      </c>
-      <c r="C240" s="3">
-        <v>152466</v>
-      </c>
-      <c r="D240" s="3">
-        <v>7663</v>
+      <c r="A240" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240" s="4">
+        <v>232958</v>
+      </c>
+      <c r="C240" s="4">
+        <v>221835</v>
+      </c>
+      <c r="D240" s="4">
+        <v>11123</v>
       </c>
       <c r="E240" s="6">
         <v>2019</v>
@@ -6970,16 +7218,16 @@
       <c r="J240" s="2"/>
     </row>
     <row r="241" spans="1:10" ht="21">
-      <c r="A241" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B241" s="2">
-        <v>831</v>
-      </c>
-      <c r="C241" s="2">
-        <v>831</v>
-      </c>
-      <c r="D241" s="2">
+      <c r="A241" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B241" s="4">
+        <v>1207</v>
+      </c>
+      <c r="C241" s="4">
+        <v>1207</v>
+      </c>
+      <c r="D241" s="8">
         <v>0</v>
       </c>
       <c r="E241" s="6">
@@ -6994,17 +7242,17 @@
       <c r="J241" s="2"/>
     </row>
     <row r="242" spans="1:10" ht="21">
-      <c r="A242" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B242" s="3">
-        <v>8611</v>
-      </c>
-      <c r="C242" s="3">
-        <v>7974</v>
-      </c>
-      <c r="D242" s="2">
-        <v>637</v>
+      <c r="A242" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B242" s="4">
+        <v>12507</v>
+      </c>
+      <c r="C242" s="4">
+        <v>11583</v>
+      </c>
+      <c r="D242" s="8">
+        <v>925</v>
       </c>
       <c r="E242" s="6">
         <v>2019</v>
@@ -7018,17 +7266,17 @@
       <c r="J242" s="2"/>
     </row>
     <row r="243" spans="1:10" ht="21">
-      <c r="A243" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B243" s="2">
-        <v>17</v>
-      </c>
-      <c r="C243" s="2">
-        <v>17</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>7</v>
+      <c r="A243" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B243" s="8">
+        <v>25</v>
+      </c>
+      <c r="C243" s="8">
+        <v>25</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E243" s="6">
         <v>2019</v>
@@ -7042,17 +7290,17 @@
       <c r="J243" s="2"/>
     </row>
     <row r="244" spans="1:10" ht="21">
-      <c r="A244" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B244" s="3">
-        <v>2345</v>
-      </c>
-      <c r="C244" s="3">
-        <v>2313</v>
-      </c>
-      <c r="D244" s="2">
-        <v>32</v>
+      <c r="A244" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" s="4">
+        <v>3407</v>
+      </c>
+      <c r="C244" s="4">
+        <v>3360</v>
+      </c>
+      <c r="D244" s="8">
+        <v>47</v>
       </c>
       <c r="E244" s="6">
         <v>2019</v>
@@ -7066,17 +7314,17 @@
       <c r="J244" s="2"/>
     </row>
     <row r="245" spans="1:10" ht="21">
-      <c r="A245" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B245" s="3">
-        <v>37204</v>
-      </c>
-      <c r="C245" s="2">
+      <c r="A245" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B245" s="4">
+        <v>54031</v>
+      </c>
+      <c r="C245" s="8">
         <v>0</v>
       </c>
-      <c r="D245" s="3">
-        <v>37204</v>
+      <c r="D245" s="4">
+        <v>54031</v>
       </c>
       <c r="E245" s="6">
         <v>2019</v>
